--- a/Excel/excel/data.xlsx
+++ b/Excel/excel/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\ProjectZoo\Excel\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1341E1-74D4-4DF3-A2E0-5C68169128A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2087F9D9-D28C-4D53-B87B-16B0793C593C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19103" yWindow="7298" windowWidth="19395" windowHeight="11474" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="card" sheetId="1" r:id="rId1"/>
@@ -82,16 +82,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="743">
   <si>
     <t>uid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -104,38 +100,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cont</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>className</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>landType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>choose_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>choose_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>choose_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>choose_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>module</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1698,10 +1666,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>condition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>园区内至少拥有10个种类相同的场馆。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1710,10 +1674,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>你的动物园全部扩建完毕且没有未建造的可建造土地。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>仅春季可用，结算所有场馆后，人气值翻倍。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1870,13 +1830,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>aniName</t>
-  </si>
-  <si>
-    <t>aniName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>什么类型的动物</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2016,22 +1969,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>choose_uid_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>choose_uid_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>choose_uid_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>choose_uid_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>nothing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3072,6 +3009,10 @@
   </si>
   <si>
     <t>招募$1名新员工，花费10+招募次数*10的金币。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>园区内至少拥有10个可以建造的场地。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3417,8 +3358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:Q139"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F80" sqref="F80"/>
+    <sheetView tabSelected="1" topLeftCell="A125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A136" sqref="A136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3439,82 +3380,67 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="G2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" t="s">
+        <v>625</v>
+      </c>
+      <c r="J2" t="s">
+        <v>503</v>
+      </c>
+      <c r="K2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>454</v>
-      </c>
-      <c r="E2" t="s">
-        <v>410</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I2" t="s">
-        <v>641</v>
-      </c>
-      <c r="J2" t="s">
-        <v>519</v>
-      </c>
-      <c r="K2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O2" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="D3" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="L3" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="40.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B4" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C4" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="D4" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>651</v>
+        <v>635</v>
       </c>
       <c r="G4" s="1">
         <v>2</v>
@@ -3550,20 +3476,20 @@
     </row>
     <row r="5" spans="1:17" ht="28" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B5" t="s">
-        <v>591</v>
+        <v>575</v>
       </c>
       <c r="C5" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="D5" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>649</v>
+        <v>633</v>
       </c>
       <c r="G5" s="1">
         <v>2</v>
@@ -3595,20 +3521,20 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B6" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C6" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="D6" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>648</v>
+        <v>632</v>
       </c>
       <c r="G6" s="1">
         <v>3</v>
@@ -3640,20 +3566,20 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="B7" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C7" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="D7" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>650</v>
+        <v>634</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -3683,20 +3609,20 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B8" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C8" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="D8" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>652</v>
+        <v>636</v>
       </c>
       <c r="G8" s="1">
         <v>50</v>
@@ -3728,20 +3654,20 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B9" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C9" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="D9" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>653</v>
+        <v>637</v>
       </c>
       <c r="G9" s="1">
         <v>4</v>
@@ -3773,20 +3699,20 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B10" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C10" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="D10" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>653</v>
+        <v>637</v>
       </c>
       <c r="G10" s="1">
         <v>8</v>
@@ -3818,20 +3744,20 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B11" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C11" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="D11" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>654</v>
+        <v>638</v>
       </c>
       <c r="G11" s="1">
         <v>9</v>
@@ -3863,20 +3789,20 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B12" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C12" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="D12" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>655</v>
+        <v>639</v>
       </c>
       <c r="G12" s="1">
         <v>3</v>
@@ -3910,20 +3836,20 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="B13" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="C13" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="D13" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>656</v>
+        <v>640</v>
       </c>
       <c r="G13" s="1">
         <v>25</v>
@@ -3957,16 +3883,16 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B14" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>657</v>
+        <v>641</v>
       </c>
       <c r="G14" s="1">
         <v>20</v>
@@ -3995,16 +3921,16 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B15" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>658</v>
+        <v>642</v>
       </c>
       <c r="G15" s="1">
         <v>1</v>
@@ -4031,18 +3957,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B16" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>413</v>
+        <v>742</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>659</v>
+        <v>643</v>
       </c>
       <c r="G16" s="1">
         <v>2</v>
@@ -4071,16 +3997,16 @@
     </row>
     <row r="17" spans="1:17" ht="28" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="B17" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>660</v>
+        <v>644</v>
       </c>
       <c r="G17" s="1">
         <v>20</v>
@@ -4109,14 +4035,14 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B18" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -4143,14 +4069,14 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B19" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -4177,14 +4103,14 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B20" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>644</v>
+        <v>628</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -4211,14 +4137,14 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B21" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -4245,14 +4171,14 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="B22" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>755</v>
+        <v>739</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -4279,14 +4205,14 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B23" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>645</v>
+        <v>629</v>
       </c>
       <c r="G23" s="1">
         <v>1</v>
@@ -4317,14 +4243,14 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B24" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>661</v>
+        <v>645</v>
       </c>
       <c r="G24" s="1">
         <v>10</v>
@@ -4355,14 +4281,14 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="B25" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>662</v>
+        <v>646</v>
       </c>
       <c r="G25" s="1">
         <v>20</v>
@@ -4391,14 +4317,14 @@
     </row>
     <row r="26" spans="1:17" ht="28" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B26" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>646</v>
+        <v>630</v>
       </c>
       <c r="G26" s="1">
         <v>2</v>
@@ -4429,14 +4355,14 @@
     </row>
     <row r="27" spans="1:17" ht="28" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B27" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>647</v>
+        <v>631</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -4465,14 +4391,14 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B28" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="G28" s="1">
         <v>1</v>
@@ -4501,14 +4427,14 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="B29" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
-        <v>664</v>
+        <v>648</v>
       </c>
       <c r="G29" s="1">
         <v>1</v>
@@ -4537,14 +4463,14 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="B30" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
       <c r="G30" s="1">
         <v>1</v>
@@ -4573,14 +4499,14 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="B31" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
-        <v>666</v>
+        <v>650</v>
       </c>
       <c r="G31" s="1">
         <v>15</v>
@@ -4609,14 +4535,14 @@
     </row>
     <row r="32" spans="1:17" ht="28" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B32" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
-        <v>667</v>
+        <v>651</v>
       </c>
       <c r="G32" s="1">
         <v>2</v>
@@ -4645,14 +4571,14 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="B33" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
-        <v>668</v>
+        <v>652</v>
       </c>
       <c r="G33" s="1">
         <v>90</v>
@@ -4681,14 +4607,14 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="B34" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="G34" s="1">
         <v>1</v>
@@ -4717,20 +4643,20 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="B35" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C35" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="D35" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1" t="s">
-        <v>653</v>
+        <v>637</v>
       </c>
       <c r="G35" s="1">
         <v>6</v>
@@ -4762,20 +4688,20 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B36" t="s">
-        <v>593</v>
+        <v>577</v>
       </c>
       <c r="C36" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="D36" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>653</v>
+        <v>637</v>
       </c>
       <c r="G36" s="1">
         <v>10</v>
@@ -4807,20 +4733,20 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="B37" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C37" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="D37" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
-        <v>653</v>
+        <v>637</v>
       </c>
       <c r="G37" s="1">
         <v>15</v>
@@ -4852,20 +4778,20 @@
     </row>
     <row r="38" spans="1:17" ht="42" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="B38" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C38" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="D38" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
-        <v>669</v>
+        <v>653</v>
       </c>
       <c r="G38" s="1">
         <v>3</v>
@@ -4897,20 +4823,20 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B39" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C39" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="D39" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>670</v>
+        <v>654</v>
       </c>
       <c r="G39" s="1">
         <v>1</v>
@@ -4944,20 +4870,20 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B40" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
       <c r="C40" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="D40" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -4987,20 +4913,20 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="B41" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C41" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="D41" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -5030,20 +4956,20 @@
     </row>
     <row r="42" spans="1:17" ht="28" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="B42" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C42" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="D42" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1" t="s">
-        <v>671</v>
+        <v>655</v>
       </c>
       <c r="G42" s="1">
         <v>3</v>
@@ -5075,20 +5001,20 @@
     </row>
     <row r="43" spans="1:17" ht="28" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B43" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C43" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="D43" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1" t="s">
-        <v>672</v>
+        <v>656</v>
       </c>
       <c r="G43" s="1">
         <v>1</v>
@@ -5120,20 +5046,20 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="B44" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C44" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="D44" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
-        <v>686</v>
+        <v>670</v>
       </c>
       <c r="G44" s="1">
         <v>1</v>
@@ -5167,20 +5093,20 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B45" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C45" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="D45" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1" t="s">
-        <v>673</v>
+        <v>657</v>
       </c>
       <c r="G45" s="1">
         <v>2</v>
@@ -5212,16 +5138,16 @@
     </row>
     <row r="46" spans="1:17" ht="28" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="B46" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -5248,16 +5174,16 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="B47" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>674</v>
+        <v>658</v>
       </c>
       <c r="G47" s="1">
         <v>3</v>
@@ -5286,16 +5212,16 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B48" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>675</v>
+        <v>659</v>
       </c>
       <c r="G48" s="1">
         <v>5</v>
@@ -5324,16 +5250,16 @@
     </row>
     <row r="49" spans="1:17" ht="28" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B49" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>676</v>
+        <v>660</v>
       </c>
       <c r="G49" s="1">
         <v>10</v>
@@ -5362,14 +5288,14 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B50" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1" t="s">
-        <v>677</v>
+        <v>661</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -5396,14 +5322,14 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="B51" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1" t="s">
-        <v>678</v>
+        <v>662</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -5430,14 +5356,14 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="B52" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1" t="s">
-        <v>679</v>
+        <v>663</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
@@ -5464,14 +5390,14 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="B53" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1" t="s">
-        <v>680</v>
+        <v>664</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
@@ -5498,14 +5424,14 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="B54" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
-        <v>613</v>
+        <v>597</v>
       </c>
       <c r="G54" s="1">
         <v>1</v>
@@ -5536,14 +5462,14 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="B55" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1" t="s">
-        <v>674</v>
+        <v>658</v>
       </c>
       <c r="G55" s="1">
         <v>1</v>
@@ -5572,14 +5498,14 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="B56" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="G56" s="1">
         <v>2</v>
@@ -5608,14 +5534,14 @@
     </row>
     <row r="57" spans="1:17" ht="42" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="B57" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
@@ -5644,14 +5570,14 @@
     </row>
     <row r="58" spans="1:17" ht="28" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="B58" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
@@ -5680,14 +5606,14 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="B59" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
-        <v>682</v>
+        <v>666</v>
       </c>
       <c r="G59" s="1">
         <v>10</v>
@@ -5716,14 +5642,14 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="B60" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
-        <v>683</v>
+        <v>667</v>
       </c>
       <c r="G60" s="1">
         <v>1</v>
@@ -5752,14 +5678,14 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="B61" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1" t="s">
-        <v>684</v>
+        <v>668</v>
       </c>
       <c r="G61" s="1">
         <v>1</v>
@@ -5788,14 +5714,14 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="B62" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1" t="s">
-        <v>685</v>
+        <v>669</v>
       </c>
       <c r="G62" s="1">
         <v>1</v>
@@ -5824,14 +5750,14 @@
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="B63" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1" t="s">
-        <v>687</v>
+        <v>671</v>
       </c>
       <c r="G63" s="1">
         <v>10</v>
@@ -5860,14 +5786,14 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="B64" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="G64" s="1">
         <v>50</v>
@@ -5896,14 +5822,14 @@
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="B65" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1" t="s">
-        <v>689</v>
+        <v>673</v>
       </c>
       <c r="G65" s="1">
         <v>1</v>
@@ -5932,14 +5858,14 @@
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="B66" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1" t="s">
-        <v>690</v>
+        <v>674</v>
       </c>
       <c r="G66" s="1">
         <v>1</v>
@@ -5968,14 +5894,14 @@
     </row>
     <row r="67" spans="1:17" ht="28" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="B67" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1" t="s">
-        <v>691</v>
+        <v>675</v>
       </c>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
@@ -6004,20 +5930,20 @@
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="B68" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C68" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="D68" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
@@ -6047,20 +5973,20 @@
     </row>
     <row r="69" spans="1:17" ht="28" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="B69" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C69" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="D69" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1" t="s">
-        <v>749</v>
+        <v>733</v>
       </c>
       <c r="G69" s="1">
         <v>2</v>
@@ -6094,20 +6020,20 @@
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="B70" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C70" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="D70" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1" t="s">
-        <v>748</v>
+        <v>732</v>
       </c>
       <c r="G70" s="1">
         <v>5</v>
@@ -6139,20 +6065,20 @@
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="B71" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C71" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="D71" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1" t="s">
-        <v>692</v>
+        <v>676</v>
       </c>
       <c r="G71" s="1">
         <v>3</v>
@@ -6184,20 +6110,20 @@
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="B72" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="C72" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="D72" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1" t="s">
-        <v>693</v>
+        <v>677</v>
       </c>
       <c r="G72" s="1">
         <v>15</v>
@@ -6231,20 +6157,20 @@
     </row>
     <row r="73" spans="1:17" ht="28" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="B73" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="C73" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="D73" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1" t="s">
-        <v>694</v>
+        <v>678</v>
       </c>
       <c r="G73" s="1">
         <v>10</v>
@@ -6278,20 +6204,20 @@
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="B74" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="C74" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="D74" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1" t="s">
-        <v>756</v>
+        <v>740</v>
       </c>
       <c r="G74" s="1">
         <v>1</v>
@@ -6323,20 +6249,20 @@
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="B75" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="C75" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="D75" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1" t="s">
-        <v>695</v>
+        <v>679</v>
       </c>
       <c r="G75" s="1">
         <v>15</v>
@@ -6368,20 +6294,20 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="B76" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="C76" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="D76" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1" t="s">
-        <v>653</v>
+        <v>637</v>
       </c>
       <c r="G76" s="1">
         <v>4</v>
@@ -6413,20 +6339,20 @@
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="B77" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="C77" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="D77" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1" t="s">
-        <v>653</v>
+        <v>637</v>
       </c>
       <c r="G77" s="1">
         <v>6</v>
@@ -6458,16 +6384,16 @@
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="B78" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>696</v>
+        <v>680</v>
       </c>
       <c r="G78" s="1">
         <v>25</v>
@@ -6496,16 +6422,16 @@
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="B79" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>660</v>
+        <v>644</v>
       </c>
       <c r="G79" s="1">
         <v>30</v>
@@ -6534,16 +6460,16 @@
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="B80" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>697</v>
+        <v>681</v>
       </c>
       <c r="G80" s="1">
         <v>20</v>
@@ -6572,16 +6498,16 @@
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="B81" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>698</v>
+        <v>682</v>
       </c>
       <c r="G81" s="1">
         <v>5</v>
@@ -6610,14 +6536,14 @@
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="B82" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1" t="s">
-        <v>699</v>
+        <v>683</v>
       </c>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
@@ -6644,14 +6570,14 @@
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="B83" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1" t="s">
-        <v>700</v>
+        <v>684</v>
       </c>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
@@ -6678,14 +6604,14 @@
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="B84" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1" t="s">
-        <v>701</v>
+        <v>685</v>
       </c>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
@@ -6712,14 +6638,14 @@
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="B85" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1" t="s">
-        <v>702</v>
+        <v>686</v>
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
@@ -6746,14 +6672,14 @@
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="B86" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1" t="s">
-        <v>703</v>
+        <v>687</v>
       </c>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
@@ -6780,14 +6706,14 @@
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="B87" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1" t="s">
-        <v>704</v>
+        <v>688</v>
       </c>
       <c r="G87" s="1">
         <v>1</v>
@@ -6818,14 +6744,14 @@
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="B88" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1" t="s">
-        <v>705</v>
+        <v>689</v>
       </c>
       <c r="G88" s="1">
         <v>15</v>
@@ -6856,14 +6782,14 @@
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="B89" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1" t="s">
-        <v>706</v>
+        <v>690</v>
       </c>
       <c r="G89" s="1">
         <v>1</v>
@@ -6892,14 +6818,14 @@
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="B90" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1" t="s">
-        <v>707</v>
+        <v>691</v>
       </c>
       <c r="G90" s="1">
         <v>1</v>
@@ -6930,14 +6856,14 @@
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="B91" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1" t="s">
-        <v>708</v>
+        <v>692</v>
       </c>
       <c r="G91" s="1">
         <v>10</v>
@@ -6970,14 +6896,14 @@
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="B92" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1" t="s">
-        <v>709</v>
+        <v>693</v>
       </c>
       <c r="G92" s="1">
         <v>4</v>
@@ -7008,14 +6934,14 @@
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="B93" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1" t="s">
-        <v>710</v>
+        <v>694</v>
       </c>
       <c r="G93" s="1">
         <v>1</v>
@@ -7046,14 +6972,14 @@
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B94" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1" t="s">
-        <v>711</v>
+        <v>695</v>
       </c>
       <c r="G94" s="1">
         <v>15</v>
@@ -7082,14 +7008,14 @@
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="B95" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1" t="s">
-        <v>712</v>
+        <v>696</v>
       </c>
       <c r="G95" s="1">
         <v>50</v>
@@ -7118,14 +7044,14 @@
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="B96" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1" t="s">
-        <v>713</v>
+        <v>697</v>
       </c>
       <c r="G96" s="1">
         <v>5</v>
@@ -7156,14 +7082,14 @@
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="B97" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1" t="s">
-        <v>714</v>
+        <v>698</v>
       </c>
       <c r="G97" s="1">
         <v>1</v>
@@ -7194,14 +7120,14 @@
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="B98" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1" t="s">
-        <v>715</v>
+        <v>699</v>
       </c>
       <c r="G98" s="1">
         <v>4</v>
@@ -7232,14 +7158,14 @@
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>517</v>
+        <v>501</v>
       </c>
       <c r="B99" t="s">
-        <v>516</v>
+        <v>500</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1" t="s">
-        <v>716</v>
+        <v>700</v>
       </c>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
@@ -7268,20 +7194,20 @@
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="B100" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C100" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="D100" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1" t="s">
-        <v>717</v>
+        <v>701</v>
       </c>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
@@ -7311,20 +7237,20 @@
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="B101" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C101" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="D101" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1" t="s">
-        <v>718</v>
+        <v>702</v>
       </c>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
@@ -7354,20 +7280,20 @@
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="B102" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="C102" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="D102" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1" t="s">
-        <v>722</v>
+        <v>706</v>
       </c>
       <c r="G102" s="1">
         <v>3</v>
@@ -7399,20 +7325,20 @@
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="B103" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C103" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="D103" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="E103" s="1"/>
       <c r="F103" s="1" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
       <c r="G103" s="1">
         <v>3</v>
@@ -7444,20 +7370,20 @@
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="B104" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="C104" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="D104" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="E104" s="1"/>
       <c r="F104" s="1" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
       <c r="G104" s="1">
         <v>3</v>
@@ -7489,20 +7415,20 @@
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="B105" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C105" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="D105" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="E105" s="1"/>
       <c r="F105" s="1" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="G105" s="1">
         <v>10</v>
@@ -7534,20 +7460,20 @@
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="B106" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="C106" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="D106" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="E106" s="1"/>
       <c r="F106" s="1" t="s">
-        <v>719</v>
+        <v>703</v>
       </c>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
@@ -7577,20 +7503,20 @@
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="B107" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C107" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="D107" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="E107" s="1"/>
       <c r="F107" s="1" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
@@ -7620,20 +7546,20 @@
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="B108" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C108" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="D108" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="1" t="s">
-        <v>721</v>
+        <v>705</v>
       </c>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
@@ -7663,20 +7589,20 @@
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="B109" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C109" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="D109" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="E109" s="1"/>
       <c r="F109" s="1" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="G109" s="1">
         <v>3</v>
@@ -7708,20 +7634,20 @@
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="B110" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="C110" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="D110" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="1" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="G110" s="1">
         <v>6</v>
@@ -7753,20 +7679,20 @@
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="B111" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C111" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="D111" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="E111" s="1"/>
       <c r="F111" s="1" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="G111" s="1">
         <v>10</v>
@@ -7798,20 +7724,20 @@
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="B112" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C112" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="D112" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="E112" s="1"/>
       <c r="F112" s="1" t="s">
-        <v>727</v>
+        <v>711</v>
       </c>
       <c r="G112" s="1">
         <v>10</v>
@@ -7843,16 +7769,16 @@
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="B113" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="G113" s="1">
         <v>50</v>
@@ -7881,16 +7807,16 @@
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="B114" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>729</v>
+        <v>713</v>
       </c>
       <c r="G114" s="1">
         <v>5</v>
@@ -7919,16 +7845,16 @@
     </row>
     <row r="115" spans="1:17" ht="28" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="B115" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>730</v>
+        <v>714</v>
       </c>
       <c r="G115" s="1">
         <v>1</v>
@@ -7957,16 +7883,16 @@
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="B116" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>731</v>
+        <v>715</v>
       </c>
       <c r="G116" s="1">
         <v>1</v>
@@ -7997,14 +7923,14 @@
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="B117" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="E117" s="1"/>
       <c r="F117" s="1" t="s">
-        <v>732</v>
+        <v>716</v>
       </c>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
@@ -8031,14 +7957,14 @@
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B118" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="E118" s="1"/>
       <c r="F118" s="1" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
@@ -8065,14 +7991,14 @@
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="B119" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="E119" s="1"/>
       <c r="F119" s="1" t="s">
-        <v>734</v>
+        <v>718</v>
       </c>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
@@ -8099,14 +8025,14 @@
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="B120" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="E120" s="1"/>
       <c r="F120" s="1" t="s">
-        <v>735</v>
+        <v>719</v>
       </c>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
@@ -8133,14 +8059,14 @@
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="B121" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="E121" s="1"/>
       <c r="F121" s="1" t="s">
-        <v>736</v>
+        <v>720</v>
       </c>
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
@@ -8167,14 +8093,14 @@
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="B122" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E122" s="1"/>
       <c r="F122" s="1" t="s">
-        <v>737</v>
+        <v>721</v>
       </c>
       <c r="G122" s="1">
         <v>2</v>
@@ -8203,14 +8129,14 @@
     </row>
     <row r="123" spans="1:17" ht="42" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="B123" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="E123" s="1"/>
       <c r="F123" s="1" t="s">
-        <v>738</v>
+        <v>722</v>
       </c>
       <c r="G123" s="1">
         <v>5</v>
@@ -8241,14 +8167,14 @@
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="B124" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="E124" s="1"/>
       <c r="F124" s="1" t="s">
-        <v>739</v>
+        <v>723</v>
       </c>
       <c r="G124" s="1">
         <v>1</v>
@@ -8277,14 +8203,14 @@
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="B125" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E125" s="1"/>
       <c r="F125" s="1" t="s">
-        <v>740</v>
+        <v>724</v>
       </c>
       <c r="G125" s="1">
         <v>1</v>
@@ -8315,14 +8241,14 @@
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="B126" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="E126" s="1"/>
       <c r="F126" s="1" t="s">
-        <v>741</v>
+        <v>725</v>
       </c>
       <c r="G126" s="1">
         <v>5</v>
@@ -8353,14 +8279,14 @@
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="B127" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="E127" s="1"/>
       <c r="F127" s="1" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
@@ -8387,14 +8313,14 @@
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="B128" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="E128" s="1"/>
       <c r="F128" s="1" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
@@ -8421,14 +8347,14 @@
     </row>
     <row r="129" spans="1:17" ht="28" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="B129" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E129" s="1"/>
       <c r="F129" s="1" t="s">
-        <v>742</v>
+        <v>726</v>
       </c>
       <c r="G129" s="1">
         <v>1</v>
@@ -8457,14 +8383,14 @@
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="B130" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="E130" s="1"/>
       <c r="F130" s="1" t="s">
-        <v>743</v>
+        <v>727</v>
       </c>
       <c r="G130" s="1">
         <v>1</v>
@@ -8493,14 +8419,14 @@
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="B131" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="E131" s="1"/>
       <c r="F131" s="1" t="s">
-        <v>744</v>
+        <v>728</v>
       </c>
       <c r="G131" s="1">
         <v>1</v>
@@ -8529,14 +8455,14 @@
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="B132" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="E132" s="1"/>
       <c r="F132" s="1" t="s">
-        <v>745</v>
+        <v>729</v>
       </c>
       <c r="G132" s="1">
         <v>1</v>
@@ -8565,14 +8491,14 @@
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="B133" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="E133" s="1"/>
       <c r="F133" s="1" t="s">
-        <v>746</v>
+        <v>730</v>
       </c>
       <c r="G133" s="1">
         <v>1</v>
@@ -8601,14 +8527,14 @@
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>515</v>
+        <v>499</v>
       </c>
       <c r="B134" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="E134" s="1"/>
       <c r="F134" s="1" t="s">
-        <v>747</v>
+        <v>731</v>
       </c>
       <c r="G134" s="1">
         <v>1</v>
@@ -8639,13 +8565,13 @@
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>510</v>
+        <v>494</v>
       </c>
       <c r="B135" t="s">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>504</v>
+        <v>488</v>
       </c>
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
@@ -8669,13 +8595,13 @@
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>511</v>
+        <v>495</v>
       </c>
       <c r="B136" t="s">
-        <v>503</v>
+        <v>487</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
@@ -8699,13 +8625,13 @@
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>512</v>
+        <v>496</v>
       </c>
       <c r="B137" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>504</v>
+        <v>488</v>
       </c>
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
@@ -8729,13 +8655,13 @@
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="B138" t="s">
-        <v>507</v>
+        <v>491</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>504</v>
+        <v>488</v>
       </c>
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
@@ -8759,13 +8685,13 @@
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="B139" t="s">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
@@ -8798,8 +8724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE6872E-FB28-44F1-8AFD-A68325822C3A}">
   <dimension ref="A2:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8814,55 +8740,49 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
       <c r="D2" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
+      <c r="N2" t="s">
         <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>582</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
         <v>598</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s">
-        <v>614</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -8897,13 +8817,13 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>600</v>
+        <v>584</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -8923,13 +8843,13 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>599</v>
+        <v>583</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -8964,13 +8884,13 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>601</v>
+        <v>585</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>757</v>
+        <v>741</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -8990,13 +8910,13 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>522</v>
+        <v>506</v>
       </c>
       <c r="E8">
         <v>100</v>
@@ -9016,13 +8936,13 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>525</v>
+        <v>509</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -9057,13 +8977,13 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>523</v>
+        <v>507</v>
       </c>
       <c r="E10">
         <v>50</v>
@@ -9083,13 +9003,13 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>605</v>
+        <v>589</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>524</v>
+        <v>508</v>
       </c>
       <c r="E11">
         <v>5</v>
@@ -9124,13 +9044,13 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B12" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
@@ -9153,13 +9073,13 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B13" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13">
@@ -9180,13 +9100,13 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B14" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14">
@@ -9207,25 +9127,25 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B15" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="B16" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16">
@@ -9246,13 +9166,13 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B17" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
@@ -9275,13 +9195,13 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="B18" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18">
@@ -9302,13 +9222,13 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19">
@@ -9329,13 +9249,13 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="B20" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20">
@@ -9356,13 +9276,13 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="B21" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
@@ -9385,13 +9305,13 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="B22" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22">
@@ -9412,13 +9332,13 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="B23" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>610</v>
+        <v>594</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23">
@@ -9454,13 +9374,13 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="B24" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24">
@@ -9481,13 +9401,13 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>609</v>
+        <v>593</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25">
@@ -9508,13 +9428,13 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="B26" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="D26" s="1">
         <v>1</v>
@@ -9537,13 +9457,13 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B27" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27">
@@ -9564,13 +9484,13 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="B28" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>611</v>
+        <v>595</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28">
@@ -9591,13 +9511,13 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="B29" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>612</v>
+        <v>596</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29">
@@ -9618,13 +9538,13 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="B30" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>613</v>
+        <v>597</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30">
@@ -9654,7 +9574,7 @@
   <dimension ref="A2:B69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -9666,16 +9586,13 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>530</v>
+        <v>514</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -9683,7 +9600,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>531</v>
+        <v>515</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -9691,7 +9608,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>532</v>
+        <v>516</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -9699,7 +9616,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>533</v>
+        <v>517</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -9707,7 +9624,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -9715,7 +9632,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>526</v>
+        <v>510</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -9723,7 +9640,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -9731,7 +9648,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -9739,7 +9656,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>529</v>
+        <v>513</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -9747,7 +9664,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>535</v>
+        <v>519</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -9755,7 +9672,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>536</v>
+        <v>520</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -9763,7 +9680,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>537</v>
+        <v>521</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -9771,7 +9688,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>538</v>
+        <v>522</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -9779,7 +9696,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>539</v>
+        <v>523</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -9787,7 +9704,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>540</v>
+        <v>524</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -9795,7 +9712,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>541</v>
+        <v>525</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -9803,7 +9720,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -9811,7 +9728,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -9819,7 +9736,7 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -9827,7 +9744,7 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -9835,7 +9752,7 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -9843,7 +9760,7 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>547</v>
+        <v>531</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -9851,7 +9768,7 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>548</v>
+        <v>532</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -9859,7 +9776,7 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>549</v>
+        <v>533</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -9867,7 +9784,7 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>550</v>
+        <v>534</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -9875,7 +9792,7 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>551</v>
+        <v>535</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -9883,7 +9800,7 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>552</v>
+        <v>536</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -9891,7 +9808,7 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>553</v>
+        <v>537</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -9899,7 +9816,7 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>554</v>
+        <v>538</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -9907,7 +9824,7 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>555</v>
+        <v>539</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -9915,7 +9832,7 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>556</v>
+        <v>540</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -9923,7 +9840,7 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>557</v>
+        <v>541</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -9931,7 +9848,7 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>590</v>
+        <v>574</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -9939,7 +9856,7 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -9947,7 +9864,7 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -9955,7 +9872,7 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -9963,7 +9880,7 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>561</v>
+        <v>545</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -9971,7 +9888,7 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -9979,7 +9896,7 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>563</v>
+        <v>547</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -9987,7 +9904,7 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>564</v>
+        <v>548</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -9995,7 +9912,7 @@
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>565</v>
+        <v>549</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -10003,7 +9920,7 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>566</v>
+        <v>550</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -10011,7 +9928,7 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>567</v>
+        <v>551</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -10019,7 +9936,7 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -10027,7 +9944,7 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>569</v>
+        <v>553</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -10035,7 +9952,7 @@
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -10043,7 +9960,7 @@
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>571</v>
+        <v>555</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -10051,7 +9968,7 @@
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -10059,7 +9976,7 @@
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -10067,7 +9984,7 @@
         <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -10075,7 +9992,7 @@
         <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -10083,7 +10000,7 @@
         <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -10091,7 +10008,7 @@
         <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -10099,7 +10016,7 @@
         <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>578</v>
+        <v>562</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -10107,7 +10024,7 @@
         <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -10115,7 +10032,7 @@
         <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -10123,7 +10040,7 @@
         <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>581</v>
+        <v>565</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -10131,7 +10048,7 @@
         <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>582</v>
+        <v>566</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -10139,7 +10056,7 @@
         <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>583</v>
+        <v>567</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -10147,7 +10064,7 @@
         <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>584</v>
+        <v>568</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -10155,7 +10072,7 @@
         <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>585</v>
+        <v>569</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -10163,7 +10080,7 @@
         <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>586</v>
+        <v>570</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -10171,7 +10088,7 @@
         <v>63</v>
       </c>
       <c r="B66" t="s">
-        <v>587</v>
+        <v>571</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -10179,7 +10096,7 @@
         <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>588</v>
+        <v>572</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -10187,7 +10104,7 @@
         <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -10195,7 +10112,7 @@
         <v>66</v>
       </c>
       <c r="B69" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
     </row>
   </sheetData>
@@ -10209,7 +10126,7 @@
   <dimension ref="A2:F27"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -10225,33 +10142,27 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>518</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
+        <v>502</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>616</v>
+        <v>600</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -10259,16 +10170,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>617</v>
+        <v>601</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -10276,16 +10187,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>618</v>
+        <v>602</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -10293,16 +10204,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -10313,16 +10224,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B8">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>620</v>
+        <v>604</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -10330,16 +10241,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="B9">
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>621</v>
+        <v>605</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -10347,16 +10258,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B10">
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -10364,16 +10275,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B11">
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>623</v>
+        <v>607</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -10381,16 +10292,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B12">
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>624</v>
+        <v>608</v>
       </c>
       <c r="E12">
         <v>10</v>
@@ -10398,16 +10309,16 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B13">
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>625</v>
+        <v>609</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -10415,16 +10326,16 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B14">
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -10432,16 +10343,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="B15">
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>627</v>
+        <v>611</v>
       </c>
       <c r="E15">
         <v>4</v>
@@ -10449,16 +10360,16 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B16">
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>628</v>
+        <v>612</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -10466,16 +10377,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B17">
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D17" t="s">
-        <v>629</v>
+        <v>613</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -10483,16 +10394,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B18">
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D18" t="s">
-        <v>630</v>
+        <v>614</v>
       </c>
       <c r="E18">
         <v>5</v>
@@ -10500,16 +10411,16 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B19">
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D19" t="s">
-        <v>631</v>
+        <v>615</v>
       </c>
       <c r="E19">
         <v>15</v>
@@ -10517,16 +10428,16 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B20">
         <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>632</v>
+        <v>616</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -10537,16 +10448,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B21">
         <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D21" t="s">
-        <v>633</v>
+        <v>617</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -10554,16 +10465,16 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B22">
         <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D22" t="s">
-        <v>634</v>
+        <v>618</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -10571,16 +10482,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B23">
         <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D23" t="s">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -10588,16 +10499,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B24">
         <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D24" t="s">
-        <v>636</v>
+        <v>620</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -10605,16 +10516,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B25">
         <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D25" t="s">
-        <v>637</v>
+        <v>621</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -10622,16 +10533,16 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B26">
         <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D26" t="s">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -10639,16 +10550,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B27">
         <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D27" t="s">
-        <v>639</v>
+        <v>623</v>
       </c>
       <c r="E27">
         <v>2</v>
@@ -10665,7 +10576,7 @@
   <dimension ref="A2:H47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -10679,43 +10590,34 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>453</v>
-      </c>
       <c r="E2" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="F2" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B4" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C4" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="D4" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="E4" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -10726,19 +10628,19 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B5" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C5" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="D5" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="E5" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10749,19 +10651,19 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B6" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C6" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="D6" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="E6" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10772,19 +10674,19 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="B7" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C7" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="D7" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="E7" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10798,19 +10700,19 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B8" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C8" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="D8" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="E8" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10821,19 +10723,19 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B9" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C9" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="D9" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="E9" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -10844,19 +10746,19 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B10" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C10" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="D10" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="E10" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -10867,19 +10769,19 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B11" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C11" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="D11" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="E11" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -10890,19 +10792,19 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B12" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C12" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="D12" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="E12" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -10913,19 +10815,19 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="B13" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="C13" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="D13" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="E13" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -10936,19 +10838,19 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="B14" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C14" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="D14" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="E14" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -10959,19 +10861,19 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B15" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C15" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="D15" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="E15" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -10982,19 +10884,19 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="B16" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C16" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="D16" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="E16" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -11005,19 +10907,19 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="B17" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C17" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="D17" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="E17" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -11028,19 +10930,19 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B18" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C18" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="D18" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="E18" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -11051,19 +10953,19 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B19" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C19" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="D19" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="E19" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -11077,19 +10979,19 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="B20" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C20" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="D20" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="E20" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -11103,19 +11005,19 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="B21" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C21" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="D21" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="E21" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -11126,19 +11028,19 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B22" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C22" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="D22" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="E22" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -11149,19 +11051,19 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="B23" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C23" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="D23" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="E23" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -11172,19 +11074,19 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B24" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C24" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="D24" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="E24" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -11195,19 +11097,19 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="B25" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C25" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="D25" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="E25" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="F25">
         <v>2</v>
@@ -11221,19 +11123,19 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="B26" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C26" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="D26" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="E26" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="F26">
         <v>2</v>
@@ -11247,19 +11149,19 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="B27" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C27" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="D27" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="E27" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="F27">
         <v>2</v>
@@ -11273,19 +11175,19 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="B28" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C28" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="D28" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="E28" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="F28">
         <v>2</v>
@@ -11296,19 +11198,19 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="B29" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="C29" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="D29" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="E29" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="F29">
         <v>2</v>
@@ -11319,19 +11221,19 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="B30" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="C30" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="D30" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="E30" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="F30">
         <v>2</v>
@@ -11342,19 +11244,19 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="B31" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="C31" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="D31" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="E31" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="F31">
         <v>2</v>
@@ -11365,19 +11267,19 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="B32" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="C32" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="D32" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="E32" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="F32">
         <v>2</v>
@@ -11388,19 +11290,19 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="B33" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="C33" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="D33" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="E33" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="F33">
         <v>2</v>
@@ -11411,19 +11313,19 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="B34" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="C34" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="D34" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="E34" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="F34">
         <v>2</v>
@@ -11434,19 +11336,19 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="B35" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C35" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="D35" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="E35" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="F35">
         <v>3</v>
@@ -11460,19 +11362,19 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="B36" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C36" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="D36" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="E36" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="F36">
         <v>3</v>
@@ -11486,19 +11388,19 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="B37" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="C37" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="D37" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="E37" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="F37">
         <v>3</v>
@@ -11512,19 +11414,19 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="B38" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C38" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="D38" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="E38" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="F38">
         <v>3</v>
@@ -11538,19 +11440,19 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="B39" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="C39" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="D39" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="E39" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="F39">
         <v>3</v>
@@ -11564,19 +11466,19 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="B40" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C40" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="D40" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="E40" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="F40">
         <v>3</v>
@@ -11590,19 +11492,19 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="B41" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="C41" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="D41" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="E41" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="F41">
         <v>3</v>
@@ -11616,19 +11518,19 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="B42" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C42" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="D42" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="E42" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="F42">
         <v>3</v>
@@ -11642,19 +11544,19 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="B43" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C43" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="D43" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="E43" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="F43">
         <v>3</v>
@@ -11668,19 +11570,19 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="B44" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C44" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="D44" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="E44" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="F44">
         <v>3</v>
@@ -11694,19 +11596,19 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="B45" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="C45" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="D45" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="E45" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="F45">
         <v>3</v>
@@ -11720,19 +11622,19 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="B46" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C46" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="D46" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="E46" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="F46">
         <v>3</v>
@@ -11746,19 +11648,19 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="B47" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C47" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="D47" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="E47" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="F47">
         <v>3</v>
@@ -11778,10 +11680,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD5E1049-6494-417E-A790-6BE56169812D}">
-  <dimension ref="A2:K23"/>
+  <dimension ref="A2:G23"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -11794,499 +11696,469 @@
     <col min="10" max="10" width="12.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>493</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>494</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
-        <v>495</v>
-      </c>
-      <c r="I2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" t="s">
-        <v>496</v>
-      </c>
-      <c r="K2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="56" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:7" ht="56" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" t="s">
+        <v>481</v>
+      </c>
+      <c r="G4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="42" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" t="s">
+        <v>482</v>
+      </c>
+      <c r="E5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" t="s">
+        <v>481</v>
+      </c>
+      <c r="G5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="70" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="56" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" t="s">
+        <v>481</v>
+      </c>
+      <c r="G7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="56" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" t="s">
+        <v>481</v>
+      </c>
+      <c r="G8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="56" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" t="s">
+        <v>579</v>
+      </c>
+      <c r="E9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F9" t="s">
+        <v>481</v>
+      </c>
+      <c r="G9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="56" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>87</v>
       </c>
-      <c r="B4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F4" t="s">
-        <v>497</v>
-      </c>
-      <c r="G4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="42" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" t="s">
+        <v>580</v>
+      </c>
+      <c r="E10" t="s">
+        <v>113</v>
+      </c>
+      <c r="F10" t="s">
+        <v>481</v>
+      </c>
+      <c r="G10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="56" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>88</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F11" t="s">
+        <v>481</v>
+      </c>
+      <c r="G11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="56" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="B12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" t="s">
+        <v>119</v>
+      </c>
+      <c r="F12" t="s">
+        <v>481</v>
+      </c>
+      <c r="G12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>90</v>
       </c>
-      <c r="D5" t="s">
-        <v>498</v>
-      </c>
-      <c r="E5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F5" t="s">
-        <v>497</v>
-      </c>
-      <c r="G5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="70" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" t="s">
+        <v>124</v>
+      </c>
+      <c r="F13" t="s">
+        <v>481</v>
+      </c>
+      <c r="G13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="42" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>91</v>
       </c>
-      <c r="B6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="B14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" t="s">
         <v>91</v>
       </c>
-      <c r="E6" t="s">
-        <v>102</v>
-      </c>
-      <c r="F6" t="s">
-        <v>497</v>
-      </c>
-      <c r="G6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="56" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" t="s">
-        <v>92</v>
-      </c>
-      <c r="E7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F7" t="s">
-        <v>497</v>
-      </c>
-      <c r="G7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="56" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E8" t="s">
-        <v>117</v>
-      </c>
-      <c r="F8" t="s">
-        <v>497</v>
-      </c>
-      <c r="G8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="56" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D9" t="s">
-        <v>595</v>
-      </c>
-      <c r="E9" t="s">
-        <v>120</v>
-      </c>
-      <c r="F9" t="s">
-        <v>497</v>
-      </c>
-      <c r="G9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="56" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="E14" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14" t="s">
+        <v>481</v>
+      </c>
+      <c r="G14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="42" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>95</v>
       </c>
-      <c r="B10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D10" t="s">
-        <v>596</v>
-      </c>
-      <c r="E10" t="s">
-        <v>121</v>
-      </c>
-      <c r="F10" t="s">
-        <v>497</v>
-      </c>
-      <c r="G10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="56" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="B15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" t="s">
+        <v>130</v>
+      </c>
+      <c r="F15" t="s">
+        <v>481</v>
+      </c>
+      <c r="G15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="56" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>96</v>
       </c>
-      <c r="B11" t="s">
-        <v>126</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="B16" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D16" t="s">
         <v>96</v>
       </c>
-      <c r="E11" t="s">
-        <v>124</v>
-      </c>
-      <c r="F11" t="s">
-        <v>497</v>
-      </c>
-      <c r="G11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="56" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>97</v>
-      </c>
-      <c r="B12" t="s">
-        <v>128</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D12" t="s">
-        <v>97</v>
-      </c>
-      <c r="E12" t="s">
-        <v>127</v>
-      </c>
-      <c r="F12" t="s">
-        <v>497</v>
-      </c>
-      <c r="G12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="28" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B13" t="s">
-        <v>130</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="E16" t="s">
         <v>131</v>
       </c>
-      <c r="D13" t="s">
-        <v>98</v>
-      </c>
-      <c r="E13" t="s">
-        <v>132</v>
-      </c>
-      <c r="F13" t="s">
-        <v>497</v>
-      </c>
-      <c r="G13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="42" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>99</v>
-      </c>
-      <c r="B14" t="s">
-        <v>133</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D14" t="s">
-        <v>99</v>
-      </c>
-      <c r="E14" t="s">
-        <v>135</v>
-      </c>
-      <c r="F14" t="s">
-        <v>497</v>
-      </c>
-      <c r="G14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="42" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>103</v>
-      </c>
-      <c r="B15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D15" t="s">
-        <v>103</v>
-      </c>
-      <c r="E15" t="s">
-        <v>138</v>
-      </c>
-      <c r="F15" t="s">
-        <v>497</v>
-      </c>
-      <c r="G15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="56" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>104</v>
-      </c>
-      <c r="B16" t="s">
-        <v>140</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D16" t="s">
-        <v>104</v>
-      </c>
-      <c r="E16" t="s">
-        <v>139</v>
-      </c>
       <c r="F16" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="G16" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="42" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B17" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D17" t="s">
-        <v>597</v>
+        <v>581</v>
       </c>
       <c r="E17" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="F17" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="G17" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="56" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B18" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D18" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E18" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="F18" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="G18" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="56" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B19" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D19" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E19" t="s">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="F19" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="G19" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="56" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B20" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D20" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="F20" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="G20" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="42" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B21" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D21" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="E21" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F21" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="G21" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="56" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B22" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D22" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E22" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="F22" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="G22" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="42" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B23" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D23" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="E23" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="F23" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="G23" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -12300,7 +12172,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -12313,19 +12185,16 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
       <c r="C1" t="s">
-        <v>640</v>
+        <v>624</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>750</v>
+        <v>734</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -12333,10 +12202,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B4" t="s">
-        <v>751</v>
+        <v>735</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -12344,10 +12213,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="B5" t="s">
-        <v>752</v>
+        <v>736</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -12355,10 +12224,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>517</v>
+        <v>501</v>
       </c>
       <c r="B6" t="s">
-        <v>753</v>
+        <v>737</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -12366,10 +12235,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>515</v>
+        <v>499</v>
       </c>
       <c r="B7" t="s">
-        <v>754</v>
+        <v>738</v>
       </c>
       <c r="C7">
         <v>1</v>

--- a/Excel/excel/data.xlsx
+++ b/Excel/excel/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\ProjectZoo\Excel\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2087F9D9-D28C-4D53-B87B-16B0793C593C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E20C336-640D-432C-A52A-919CDD1F2E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19103" yWindow="7298" windowWidth="19395" windowHeight="11474" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="751">
   <si>
     <t>uid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -389,10 +389,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>不会再弃牌，但是收入减半</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>event_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -595,10 +591,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>重复执行部门行动也只需要一个工人，工人在被招募两个回合内不能被派遣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>季度结束时，你每有一个未派遣的工人就获得3金钱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1678,10 +1670,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获得抽牌堆中的下一张猿猴场馆牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>删除手上的一张坏点子牌。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1730,10 +1718,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获得抽牌堆中的下一张哺乳类场馆牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>清理一个场馆，返还建造成本50%的金钱。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1790,10 +1774,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获得抽牌堆中的下一张爬虫类场馆牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>园区内拥有至少10个海洋场馆。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1810,10 +1790,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获得抽牌堆中的下一张海洋场馆牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>仅冬季可用，结算所有场馆后，人气值提升10%。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2404,18 +2380,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>limitTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>仅本回合人气值提升百分比</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>打出手牌中$1张猿猴场馆。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>免费扩建$1块地。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2552,10 +2520,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获得抽牌堆中的下$w1张猿猴场馆牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>删除手上的$w1张坏点子牌。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2692,10 +2656,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获得抽牌堆中的下$w1张哺乳类场馆牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>清理一个场馆，返还建造成本$w1%的金钱。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2728,10 +2688,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每季度开始时，50%概率获得$1金钱。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>将你利息的$1%作为额外的人气值。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2788,10 +2744,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获得抽牌堆中的下$w1张爬虫类场馆牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>免费扩建$w1块地。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2912,10 +2864,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获得抽牌堆中的下$w1张海洋场馆牌。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>抽$w1张牌。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3000,10 +2948,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>免费打出手牌中$w1张猿猴场馆。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>每有可建造的空地，获得$1人气值。(当前$b)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3012,7 +2956,88 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>园区内至少拥有10个可以建造的场地。</t>
+    <t>招募工人价格翻倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能派遣特殊工人</t>
+  </si>
+  <si>
+    <t>不能派遣临时工人</t>
+  </si>
+  <si>
+    <t>拥有的永久规划牌数</t>
+  </si>
+  <si>
+    <t>不会再弃牌，也不会获得任何收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复执行部门行动也只需要一个工人，不能派遣任何临时工人或特殊工人。招募工人价格翻倍。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费$1金钱，获得抽牌堆中的下一张猿猴场馆牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费$1金钱，获得抽牌堆中的下一张哺乳类场馆牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费$1金钱，获得抽牌堆中的下一张爬虫类场馆牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费$1金钱，获得抽牌堆中的下一张海洋场馆牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>limitTime_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>limitTime_2</t>
+  </si>
+  <si>
+    <t>limitTime_3</t>
+  </si>
+  <si>
+    <t>limitTime_4</t>
+  </si>
+  <si>
+    <t>limitTime_5</t>
+  </si>
+  <si>
+    <t>打出手牌中1张猿猴场馆。(每季度限$1次)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>园区内至少拥有20个可以建造的场地。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30%概率获得$1收入。将这张卡牌返回手牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费$w1金钱，获得抽牌堆中的下一张哺乳类场馆牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费$w1金钱，获得抽牌堆中的下一张猿猴场馆牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打出手牌中1张猿猴场馆。(每季度限$w1次)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费$w1金钱，获得抽牌堆中的下一张爬虫类场馆牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能获得任何收入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3358,8 +3383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:Q139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A136" sqref="A136"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N35" sqref="N35:O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3387,10 +3412,10 @@
         <v>72</v>
       </c>
       <c r="I2" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="J2" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="K2" t="s">
         <v>4</v>
@@ -3416,31 +3441,31 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="D3" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="L3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="40.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C4" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D4" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="G4" s="1">
         <v>2</v>
@@ -3476,20 +3501,20 @@
     </row>
     <row r="5" spans="1:17" ht="28" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B5" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="C5" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D5" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="G5" s="1">
         <v>2</v>
@@ -3521,20 +3546,20 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C6" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D6" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="G6" s="1">
         <v>3</v>
@@ -3566,20 +3591,20 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C7" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -3609,20 +3634,20 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C8" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D8" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="G8" s="1">
         <v>50</v>
@@ -3654,20 +3679,20 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C9" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D9" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="G9" s="1">
         <v>4</v>
@@ -3699,20 +3724,20 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C10" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D10" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="G10" s="1">
         <v>8</v>
@@ -3744,20 +3769,20 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C11" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D11" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="G11" s="1">
         <v>9</v>
@@ -3789,20 +3814,20 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C12" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D12" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="G12" s="1">
         <v>3</v>
@@ -3836,20 +3861,20 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B13" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C13" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D13" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="G13" s="1">
         <v>25</v>
@@ -3883,16 +3908,16 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B14" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="G14" s="1">
         <v>20</v>
@@ -3916,21 +3941,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="G15" s="1">
         <v>1</v>
@@ -3954,21 +3979,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="G16" s="1">
         <v>2</v>
@@ -3992,21 +4017,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="28" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="B17" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="G17" s="1">
         <v>20</v>
@@ -4030,19 +4055,19 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B18" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -4064,19 +4089,19 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>627</v>
+        <v>747</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -4098,19 +4123,19 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B20" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -4132,19 +4157,19 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B21" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -4166,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>739</v>
+        <v>748</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -4200,19 +4225,19 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B23" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="G23" s="1">
         <v>1</v>
@@ -4243,14 +4268,14 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B24" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="G24" s="1">
         <v>10</v>
@@ -4281,14 +4306,14 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B25" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="G25" s="1">
         <v>20</v>
@@ -4317,14 +4342,14 @@
     </row>
     <row r="26" spans="1:17" ht="28" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B26" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="G26" s="1">
         <v>2</v>
@@ -4350,19 +4375,19 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="28" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B27" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -4386,22 +4411,22 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B28" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="G28" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -4422,19 +4447,19 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B29" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="G29" s="1">
         <v>1</v>
@@ -4458,19 +4483,19 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B30" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="G30" s="1">
         <v>1</v>
@@ -4499,14 +4524,14 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B31" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="G31" s="1">
         <v>15</v>
@@ -4535,14 +4560,14 @@
     </row>
     <row r="32" spans="1:17" ht="28" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B32" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="G32" s="1">
         <v>2</v>
@@ -4571,14 +4596,14 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B33" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="G33" s="1">
         <v>90</v>
@@ -4602,19 +4627,19 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B34" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G34" s="1">
         <v>1</v>
@@ -4638,25 +4663,25 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B35" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C35" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="D35" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="G35" s="1">
         <v>6</v>
@@ -4688,20 +4713,20 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B36" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="C36" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="D36" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="G36" s="1">
         <v>10</v>
@@ -4733,20 +4758,20 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B37" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C37" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="D37" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="G37" s="1">
         <v>15</v>
@@ -4778,20 +4803,20 @@
     </row>
     <row r="38" spans="1:17" ht="42" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B38" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C38" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="D38" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="G38" s="1">
         <v>3</v>
@@ -4823,20 +4848,20 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B39" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C39" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="D39" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="G39" s="1">
         <v>1</v>
@@ -4870,20 +4895,20 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B40" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="C40" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="D40" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -4913,20 +4938,20 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="B41" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C41" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="D41" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -4956,20 +4981,20 @@
     </row>
     <row r="42" spans="1:17" ht="28" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B42" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C42" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="D42" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="G42" s="1">
         <v>3</v>
@@ -5001,20 +5026,20 @@
     </row>
     <row r="43" spans="1:17" ht="28" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B43" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C43" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="D43" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="G43" s="1">
         <v>1</v>
@@ -5046,20 +5071,20 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B44" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C44" t="s">
+        <v>439</v>
+      </c>
+      <c r="D44" t="s">
         <v>445</v>
-      </c>
-      <c r="D44" t="s">
-        <v>451</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="G44" s="1">
         <v>1</v>
@@ -5093,20 +5118,20 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B45" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C45" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="D45" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="G45" s="1">
         <v>2</v>
@@ -5138,16 +5163,16 @@
     </row>
     <row r="46" spans="1:17" ht="28" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B46" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -5169,21 +5194,21 @@
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B47" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="G47" s="1">
         <v>3</v>
@@ -5207,21 +5232,21 @@
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B48" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="G48" s="1">
         <v>5</v>
@@ -5245,21 +5270,21 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="28" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B49" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="G49" s="1">
         <v>10</v>
@@ -5283,19 +5308,19 @@
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B50" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -5317,19 +5342,19 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B51" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1" t="s">
-        <v>662</v>
+        <v>746</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -5351,19 +5376,19 @@
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B52" t="s">
         <v>23</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
@@ -5385,19 +5410,19 @@
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B53" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
@@ -5419,19 +5444,19 @@
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B54" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="G54" s="1">
         <v>1</v>
@@ -5457,19 +5482,19 @@
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B55" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="G55" s="1">
         <v>1</v>
@@ -5498,17 +5523,17 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B56" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="G56" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
@@ -5529,19 +5554,19 @@
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:17" ht="42" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B57" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
@@ -5570,14 +5595,14 @@
     </row>
     <row r="58" spans="1:17" ht="28" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B58" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
@@ -5606,14 +5631,14 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B59" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="G59" s="1">
         <v>10</v>
@@ -5642,14 +5667,14 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B60" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="G60" s="1">
         <v>1</v>
@@ -5678,14 +5703,14 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B61" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="G61" s="1">
         <v>1</v>
@@ -5714,14 +5739,14 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B62" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="G62" s="1">
         <v>1</v>
@@ -5750,17 +5775,17 @@
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B63" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1" t="s">
-        <v>671</v>
+        <v>745</v>
       </c>
       <c r="G63" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -5786,14 +5811,14 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B64" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="G64" s="1">
         <v>50</v>
@@ -5817,19 +5842,19 @@
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B65" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1" t="s">
-        <v>673</v>
+        <v>662</v>
       </c>
       <c r="G65" s="1">
         <v>1</v>
@@ -5853,19 +5878,19 @@
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B66" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1" t="s">
-        <v>674</v>
+        <v>663</v>
       </c>
       <c r="G66" s="1">
         <v>1</v>
@@ -5889,19 +5914,19 @@
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:17" ht="28" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B67" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
@@ -5925,25 +5950,25 @@
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B68" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C68" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="D68" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
@@ -5973,20 +5998,20 @@
     </row>
     <row r="69" spans="1:17" ht="28" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B69" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C69" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="D69" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1" t="s">
-        <v>733</v>
+        <v>720</v>
       </c>
       <c r="G69" s="1">
         <v>2</v>
@@ -6020,20 +6045,20 @@
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B70" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C70" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="D70" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1" t="s">
-        <v>732</v>
+        <v>719</v>
       </c>
       <c r="G70" s="1">
         <v>5</v>
@@ -6065,20 +6090,20 @@
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B71" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C71" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="D71" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1" t="s">
-        <v>676</v>
+        <v>665</v>
       </c>
       <c r="G71" s="1">
         <v>3</v>
@@ -6110,20 +6135,20 @@
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B72" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C72" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="D72" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1" t="s">
-        <v>677</v>
+        <v>666</v>
       </c>
       <c r="G72" s="1">
         <v>15</v>
@@ -6157,20 +6182,20 @@
     </row>
     <row r="73" spans="1:17" ht="28" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B73" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C73" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="D73" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1" t="s">
-        <v>678</v>
+        <v>667</v>
       </c>
       <c r="G73" s="1">
         <v>10</v>
@@ -6204,20 +6229,20 @@
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B74" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C74" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="D74" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1" t="s">
-        <v>740</v>
+        <v>726</v>
       </c>
       <c r="G74" s="1">
         <v>1</v>
@@ -6249,20 +6274,20 @@
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B75" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C75" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="D75" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1" t="s">
-        <v>679</v>
+        <v>668</v>
       </c>
       <c r="G75" s="1">
         <v>15</v>
@@ -6294,20 +6319,20 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B76" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C76" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="D76" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="G76" s="1">
         <v>4</v>
@@ -6339,20 +6364,20 @@
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B77" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C77" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="D77" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="G77" s="1">
         <v>6</v>
@@ -6384,16 +6409,16 @@
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B78" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>680</v>
+        <v>669</v>
       </c>
       <c r="G78" s="1">
         <v>25</v>
@@ -6417,21 +6442,21 @@
         <v>2</v>
       </c>
       <c r="Q78">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B79" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="G79" s="1">
         <v>30</v>
@@ -6455,21 +6480,21 @@
         <v>2</v>
       </c>
       <c r="Q79">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B80" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>681</v>
+        <v>670</v>
       </c>
       <c r="G80" s="1">
         <v>20</v>
@@ -6493,21 +6518,21 @@
         <v>2</v>
       </c>
       <c r="Q80">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B81" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
       <c r="G81" s="1">
         <v>5</v>
@@ -6531,19 +6556,19 @@
         <v>2</v>
       </c>
       <c r="Q81">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B82" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
@@ -6565,19 +6590,19 @@
         <v>2</v>
       </c>
       <c r="Q82">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B83" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
@@ -6599,19 +6624,19 @@
         <v>2</v>
       </c>
       <c r="Q83">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B84" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
@@ -6633,19 +6658,19 @@
         <v>2</v>
       </c>
       <c r="Q84">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B85" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1" t="s">
-        <v>686</v>
+        <v>749</v>
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
@@ -6667,19 +6692,19 @@
         <v>2</v>
       </c>
       <c r="Q85">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B86" t="s">
         <v>24</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
@@ -6701,19 +6726,19 @@
         <v>2</v>
       </c>
       <c r="Q86">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B87" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1" t="s">
-        <v>688</v>
+        <v>676</v>
       </c>
       <c r="G87" s="1">
         <v>1</v>
@@ -6744,14 +6769,14 @@
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B88" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1" t="s">
-        <v>689</v>
+        <v>677</v>
       </c>
       <c r="G88" s="1">
         <v>15</v>
@@ -6782,14 +6807,14 @@
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B89" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1" t="s">
-        <v>690</v>
+        <v>678</v>
       </c>
       <c r="G89" s="1">
         <v>1</v>
@@ -6818,14 +6843,14 @@
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B90" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
       <c r="G90" s="1">
         <v>1</v>
@@ -6856,14 +6881,14 @@
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B91" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="G91" s="1">
         <v>10</v>
@@ -6896,14 +6921,14 @@
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B92" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
       <c r="G92" s="1">
         <v>4</v>
@@ -6934,14 +6959,14 @@
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B93" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="G93" s="1">
         <v>1</v>
@@ -6972,14 +6997,14 @@
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B94" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="G94" s="1">
         <v>15</v>
@@ -7008,14 +7033,14 @@
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B95" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="G95" s="1">
         <v>50</v>
@@ -7039,19 +7064,19 @@
         <v>2</v>
       </c>
       <c r="Q95">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B96" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
       <c r="G96" s="1">
         <v>5</v>
@@ -7082,14 +7107,14 @@
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B97" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1" t="s">
-        <v>698</v>
+        <v>686</v>
       </c>
       <c r="G97" s="1">
         <v>1</v>
@@ -7120,14 +7145,14 @@
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B98" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1" t="s">
-        <v>699</v>
+        <v>687</v>
       </c>
       <c r="G98" s="1">
         <v>4</v>
@@ -7158,14 +7183,14 @@
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="B99" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1" t="s">
-        <v>700</v>
+        <v>688</v>
       </c>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
@@ -7194,20 +7219,20 @@
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B100" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C100" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D100" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1" t="s">
-        <v>701</v>
+        <v>689</v>
       </c>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
@@ -7237,20 +7262,20 @@
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B101" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C101" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D101" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
@@ -7280,20 +7305,20 @@
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B102" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C102" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D102" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1" t="s">
-        <v>706</v>
+        <v>694</v>
       </c>
       <c r="G102" s="1">
         <v>3</v>
@@ -7325,20 +7350,20 @@
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B103" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C103" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D103" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="E103" s="1"/>
       <c r="F103" s="1" t="s">
-        <v>707</v>
+        <v>695</v>
       </c>
       <c r="G103" s="1">
         <v>3</v>
@@ -7370,20 +7395,20 @@
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B104" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C104" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D104" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="E104" s="1"/>
       <c r="F104" s="1" t="s">
-        <v>708</v>
+        <v>696</v>
       </c>
       <c r="G104" s="1">
         <v>3</v>
@@ -7415,20 +7440,20 @@
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B105" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C105" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D105" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="E105" s="1"/>
       <c r="F105" s="1" t="s">
-        <v>709</v>
+        <v>697</v>
       </c>
       <c r="G105" s="1">
         <v>10</v>
@@ -7460,20 +7485,20 @@
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B106" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C106" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D106" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="E106" s="1"/>
       <c r="F106" s="1" t="s">
-        <v>703</v>
+        <v>691</v>
       </c>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
@@ -7503,20 +7528,20 @@
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B107" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C107" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D107" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="E107" s="1"/>
       <c r="F107" s="1" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
@@ -7546,20 +7571,20 @@
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B108" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C108" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D108" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="1" t="s">
-        <v>705</v>
+        <v>693</v>
       </c>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
@@ -7589,20 +7614,20 @@
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B109" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C109" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D109" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="E109" s="1"/>
       <c r="F109" s="1" t="s">
-        <v>710</v>
+        <v>698</v>
       </c>
       <c r="G109" s="1">
         <v>3</v>
@@ -7634,20 +7659,20 @@
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B110" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C110" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D110" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="1" t="s">
-        <v>710</v>
+        <v>698</v>
       </c>
       <c r="G110" s="1">
         <v>6</v>
@@ -7679,20 +7704,20 @@
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B111" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C111" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D111" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="E111" s="1"/>
       <c r="F111" s="1" t="s">
-        <v>710</v>
+        <v>698</v>
       </c>
       <c r="G111" s="1">
         <v>10</v>
@@ -7724,20 +7749,20 @@
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B112" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C112" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D112" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="E112" s="1"/>
       <c r="F112" s="1" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
       <c r="G112" s="1">
         <v>10</v>
@@ -7769,16 +7794,16 @@
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B113" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>712</v>
+        <v>700</v>
       </c>
       <c r="G113" s="1">
         <v>50</v>
@@ -7802,21 +7827,21 @@
         <v>3</v>
       </c>
       <c r="Q113">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B114" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
       <c r="G114" s="1">
         <v>5</v>
@@ -7840,21 +7865,21 @@
         <v>3</v>
       </c>
       <c r="Q114">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:17" ht="28" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B115" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="G115" s="1">
         <v>1</v>
@@ -7878,21 +7903,21 @@
         <v>3</v>
       </c>
       <c r="Q115">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B116" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>715</v>
+        <v>703</v>
       </c>
       <c r="G116" s="1">
         <v>1</v>
@@ -7918,19 +7943,19 @@
         <v>3</v>
       </c>
       <c r="Q116">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B117" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E117" s="1"/>
       <c r="F117" s="1" t="s">
-        <v>716</v>
+        <v>704</v>
       </c>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
@@ -7952,19 +7977,19 @@
         <v>3</v>
       </c>
       <c r="Q117">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B118" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E118" s="1"/>
       <c r="F118" s="1" t="s">
-        <v>717</v>
+        <v>737</v>
       </c>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
@@ -7986,19 +8011,19 @@
         <v>3</v>
       </c>
       <c r="Q118">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B119" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E119" s="1"/>
       <c r="F119" s="1" t="s">
-        <v>718</v>
+        <v>705</v>
       </c>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
@@ -8020,19 +8045,19 @@
         <v>3</v>
       </c>
       <c r="Q119">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B120" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E120" s="1"/>
       <c r="F120" s="1" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
@@ -8054,19 +8079,19 @@
         <v>3</v>
       </c>
       <c r="Q120">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B121" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E121" s="1"/>
       <c r="F121" s="1" t="s">
-        <v>720</v>
+        <v>707</v>
       </c>
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
@@ -8088,19 +8113,19 @@
         <v>3</v>
       </c>
       <c r="Q121">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B122" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E122" s="1"/>
       <c r="F122" s="1" t="s">
-        <v>721</v>
+        <v>708</v>
       </c>
       <c r="G122" s="1">
         <v>2</v>
@@ -8129,14 +8154,14 @@
     </row>
     <row r="123" spans="1:17" ht="42" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B123" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E123" s="1"/>
       <c r="F123" s="1" t="s">
-        <v>722</v>
+        <v>709</v>
       </c>
       <c r="G123" s="1">
         <v>5</v>
@@ -8167,14 +8192,14 @@
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B124" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E124" s="1"/>
       <c r="F124" s="1" t="s">
-        <v>723</v>
+        <v>710</v>
       </c>
       <c r="G124" s="1">
         <v>1</v>
@@ -8203,14 +8228,14 @@
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B125" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E125" s="1"/>
       <c r="F125" s="1" t="s">
-        <v>724</v>
+        <v>711</v>
       </c>
       <c r="G125" s="1">
         <v>1</v>
@@ -8241,14 +8266,14 @@
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B126" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E126" s="1"/>
       <c r="F126" s="1" t="s">
-        <v>725</v>
+        <v>712</v>
       </c>
       <c r="G126" s="1">
         <v>5</v>
@@ -8279,14 +8304,14 @@
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B127" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E127" s="1"/>
       <c r="F127" s="1" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
@@ -8308,19 +8333,19 @@
         <v>3</v>
       </c>
       <c r="Q127">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B128" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E128" s="1"/>
       <c r="F128" s="1" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
@@ -8347,14 +8372,14 @@
     </row>
     <row r="129" spans="1:17" ht="28" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B129" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E129" s="1"/>
       <c r="F129" s="1" t="s">
-        <v>726</v>
+        <v>713</v>
       </c>
       <c r="G129" s="1">
         <v>1</v>
@@ -8383,14 +8408,14 @@
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B130" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E130" s="1"/>
       <c r="F130" s="1" t="s">
-        <v>727</v>
+        <v>714</v>
       </c>
       <c r="G130" s="1">
         <v>1</v>
@@ -8419,14 +8444,14 @@
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B131" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E131" s="1"/>
       <c r="F131" s="1" t="s">
-        <v>728</v>
+        <v>715</v>
       </c>
       <c r="G131" s="1">
         <v>1</v>
@@ -8455,14 +8480,14 @@
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B132" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E132" s="1"/>
       <c r="F132" s="1" t="s">
-        <v>729</v>
+        <v>716</v>
       </c>
       <c r="G132" s="1">
         <v>1</v>
@@ -8491,14 +8516,14 @@
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B133" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E133" s="1"/>
       <c r="F133" s="1" t="s">
-        <v>730</v>
+        <v>717</v>
       </c>
       <c r="G133" s="1">
         <v>1</v>
@@ -8527,14 +8552,14 @@
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="B134" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="E134" s="1"/>
       <c r="F134" s="1" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="G134" s="1">
         <v>1</v>
@@ -8565,13 +8590,13 @@
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="B135" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
@@ -8584,7 +8609,7 @@
         <v>5</v>
       </c>
       <c r="O135">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P135">
         <v>-1</v>
@@ -8595,13 +8620,13 @@
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="B136" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
@@ -8625,13 +8650,13 @@
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="B137" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
@@ -8655,13 +8680,13 @@
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="B138" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
@@ -8671,7 +8696,7 @@
         <v>-1</v>
       </c>
       <c r="N138">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O138">
         <v>4</v>
@@ -8685,13 +8710,13 @@
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="B139" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
@@ -8722,10 +8747,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE6872E-FB28-44F1-8AFD-A68325822C3A}">
-  <dimension ref="A2:N30"/>
+  <dimension ref="A2:R30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8733,833 +8758,949 @@
     <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.4140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.4140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="8.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>590</v>
+        <v>738</v>
       </c>
       <c r="E2" t="s">
+        <v>739</v>
+      </c>
+      <c r="F2" t="s">
+        <v>740</v>
+      </c>
+      <c r="G2" t="s">
+        <v>741</v>
+      </c>
+      <c r="H2" t="s">
+        <v>742</v>
+      </c>
+      <c r="I2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="J2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
+      <c r="K2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
+      <c r="L2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" t="s">
+      <c r="M2" t="s">
         <v>11</v>
       </c>
-      <c r="J2" t="s">
+      <c r="N2" t="s">
         <v>12</v>
       </c>
-      <c r="K2" t="s">
+      <c r="O2" t="s">
         <v>13</v>
       </c>
-      <c r="L2" t="s">
+      <c r="P2" t="s">
         <v>14</v>
       </c>
-      <c r="M2" t="s">
+      <c r="Q2" t="s">
         <v>15</v>
       </c>
-      <c r="N2" t="s">
+      <c r="R2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>598</v>
-      </c>
-      <c r="E4">
+        <v>590</v>
+      </c>
+      <c r="I4">
         <v>5</v>
       </c>
-      <c r="F4">
+      <c r="J4">
         <v>6</v>
       </c>
-      <c r="G4">
+      <c r="K4">
         <v>7</v>
       </c>
-      <c r="H4">
+      <c r="L4">
         <v>8</v>
       </c>
-      <c r="I4">
+      <c r="M4">
         <v>10</v>
       </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
       <c r="N4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>504</v>
-      </c>
-      <c r="E5">
+        <v>498</v>
+      </c>
+      <c r="I5">
         <v>5</v>
       </c>
-      <c r="F5">
+      <c r="J5">
         <v>6</v>
       </c>
-      <c r="G5">
+      <c r="K5">
         <v>7</v>
       </c>
-      <c r="H5">
+      <c r="L5">
         <v>8</v>
       </c>
-      <c r="I5">
+      <c r="M5">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>505</v>
-      </c>
-      <c r="E6">
+        <v>499</v>
+      </c>
+      <c r="I6">
         <v>5</v>
       </c>
-      <c r="F6">
+      <c r="J6">
         <v>6</v>
       </c>
-      <c r="G6">
+      <c r="K6">
         <v>8</v>
       </c>
-      <c r="H6">
+      <c r="L6">
         <v>11</v>
       </c>
-      <c r="I6">
+      <c r="M6">
         <v>15</v>
       </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>2</v>
-      </c>
-      <c r="M6">
-        <v>2</v>
-      </c>
       <c r="N6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>2</v>
+      </c>
+      <c r="Q6">
+        <v>2</v>
+      </c>
+      <c r="R6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>741</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
+        <v>727</v>
       </c>
       <c r="I7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>506</v>
-      </c>
-      <c r="E8">
+        <v>500</v>
+      </c>
+      <c r="I8">
         <v>100</v>
       </c>
-      <c r="F8">
+      <c r="J8">
         <v>90</v>
       </c>
-      <c r="G8">
+      <c r="K8">
         <v>80</v>
       </c>
-      <c r="H8">
+      <c r="L8">
         <v>70</v>
       </c>
-      <c r="I8">
+      <c r="M8">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>509</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-      <c r="H9">
-        <v>2</v>
+        <v>503</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9">
         <v>10</v>
       </c>
-      <c r="K9">
+      <c r="O9">
         <v>9</v>
       </c>
-      <c r="L9">
+      <c r="P9">
         <v>17</v>
       </c>
-      <c r="M9">
+      <c r="Q9">
         <v>15</v>
       </c>
-      <c r="N9">
+      <c r="R9">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>507</v>
-      </c>
-      <c r="E10">
+        <v>501</v>
+      </c>
+      <c r="I10">
         <v>50</v>
       </c>
-      <c r="F10">
+      <c r="J10">
         <v>40</v>
       </c>
-      <c r="G10">
+      <c r="K10">
         <v>30</v>
       </c>
-      <c r="H10">
+      <c r="L10">
         <v>20</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>508</v>
-      </c>
-      <c r="E11">
+        <v>502</v>
+      </c>
+      <c r="I11">
         <v>5</v>
       </c>
-      <c r="F11">
+      <c r="J11">
         <v>7</v>
       </c>
-      <c r="G11">
+      <c r="K11">
         <v>9</v>
       </c>
-      <c r="H11">
+      <c r="L11">
         <v>7</v>
       </c>
-      <c r="I11">
+      <c r="M11">
         <v>9</v>
       </c>
-      <c r="J11">
-        <v>2</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
+      <c r="N11">
+        <v>2</v>
+      </c>
+      <c r="O11">
+        <v>3</v>
+      </c>
+      <c r="P11">
         <v>4</v>
       </c>
-      <c r="M11">
+      <c r="Q11">
         <v>4</v>
       </c>
-      <c r="N11">
+      <c r="R11">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>286</v>
+      </c>
+      <c r="B12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>100</v>
+      </c>
+      <c r="J12">
+        <v>110</v>
+      </c>
+      <c r="K12">
+        <v>120</v>
+      </c>
+      <c r="L12">
+        <v>130</v>
+      </c>
+      <c r="M12">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>287</v>
+      </c>
+      <c r="B13" t="s">
+        <v>175</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13">
+        <v>10</v>
+      </c>
+      <c r="J13">
+        <v>8</v>
+      </c>
+      <c r="K13">
+        <v>6</v>
+      </c>
+      <c r="L13">
+        <v>4</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>288</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" t="s">
         <v>176</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C14" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>289</v>
+      </c>
+      <c r="B15" t="s">
+        <v>177</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>100</v>
-      </c>
-      <c r="F12">
-        <v>110</v>
-      </c>
-      <c r="G12">
-        <v>120</v>
-      </c>
-      <c r="H12">
-        <v>130</v>
-      </c>
-      <c r="I12">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>289</v>
-      </c>
-      <c r="B13" t="s">
-        <v>177</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>290</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B16" t="s">
         <v>178</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>291</v>
-      </c>
-      <c r="B15" t="s">
-        <v>179</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>292</v>
-      </c>
-      <c r="B16" t="s">
-        <v>180</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>2</v>
-      </c>
-      <c r="H16">
-        <v>2</v>
-      </c>
-      <c r="I16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+        <v>743</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2</v>
+      </c>
+      <c r="G16" s="1">
+        <v>2</v>
+      </c>
+      <c r="H16" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>316</v>
+      </c>
+      <c r="B17" t="s">
+        <v>205</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>50</v>
+      </c>
+      <c r="J17">
+        <v>55</v>
+      </c>
+      <c r="K17">
+        <v>60</v>
+      </c>
+      <c r="L17">
+        <v>65</v>
+      </c>
+      <c r="M17">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>317</v>
+      </c>
+      <c r="B18" t="s">
+        <v>206</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18">
+        <v>10</v>
+      </c>
+      <c r="J18">
+        <v>8</v>
+      </c>
+      <c r="K18">
+        <v>6</v>
+      </c>
+      <c r="L18">
+        <v>4</v>
+      </c>
+      <c r="M18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>318</v>
-      </c>
-      <c r="B17" t="s">
-        <v>207</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>50</v>
-      </c>
-      <c r="F17">
-        <v>55</v>
-      </c>
-      <c r="G17">
-        <v>60</v>
-      </c>
-      <c r="H17">
-        <v>65</v>
-      </c>
-      <c r="I17">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>319</v>
-      </c>
-      <c r="B18" t="s">
-        <v>208</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>320</v>
       </c>
       <c r="B19" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D19" s="1"/>
-      <c r="E19">
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19">
         <v>50</v>
       </c>
-      <c r="F19">
+      <c r="J19">
         <v>70</v>
       </c>
-      <c r="G19">
+      <c r="K19">
         <v>90</v>
       </c>
-      <c r="H19">
+      <c r="L19">
         <v>120</v>
       </c>
-      <c r="I19">
+      <c r="M19">
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B20" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>2</v>
-      </c>
-      <c r="G20">
-        <v>3</v>
-      </c>
-      <c r="H20">
-        <v>3</v>
-      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
       <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>3</v>
+      </c>
+      <c r="M20">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>348</v>
+      </c>
+      <c r="B21" t="s">
+        <v>225</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>20</v>
+      </c>
+      <c r="J21">
+        <v>25</v>
+      </c>
+      <c r="K21">
+        <v>30</v>
+      </c>
+      <c r="L21">
+        <v>35</v>
+      </c>
+      <c r="M21">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B22" t="s">
+        <v>226</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>350</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B23" t="s">
         <v>227</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="D21" s="1">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>20</v>
-      </c>
-      <c r="F21">
-        <v>25</v>
-      </c>
-      <c r="G21">
-        <v>30</v>
-      </c>
-      <c r="H21">
-        <v>35</v>
-      </c>
-      <c r="I21">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>351</v>
-      </c>
-      <c r="B22" t="s">
-        <v>228</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="D22" s="1"/>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>352</v>
-      </c>
-      <c r="B23" t="s">
-        <v>229</v>
-      </c>
       <c r="C23" s="1" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="D23" s="1"/>
-      <c r="E23">
-        <v>10</v>
-      </c>
-      <c r="F23">
-        <v>10</v>
-      </c>
-      <c r="G23">
-        <v>10</v>
-      </c>
-      <c r="H23">
-        <v>10</v>
-      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
       <c r="I23">
         <v>10</v>
       </c>
       <c r="J23">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K23">
+        <v>10</v>
+      </c>
+      <c r="L23">
+        <v>10</v>
+      </c>
+      <c r="M23">
+        <v>10</v>
+      </c>
+      <c r="N23">
+        <v>3</v>
+      </c>
+      <c r="O23">
         <v>5</v>
       </c>
-      <c r="L23">
+      <c r="P23">
         <v>7</v>
       </c>
-      <c r="M23">
+      <c r="Q23">
         <v>9</v>
       </c>
-      <c r="N23">
+      <c r="R23">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B24" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>433</v>
+        <v>736</v>
       </c>
       <c r="D24" s="1"/>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
       <c r="I24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="J24">
+        <v>8</v>
+      </c>
+      <c r="K24">
+        <v>6</v>
+      </c>
+      <c r="L24">
+        <v>4</v>
+      </c>
+      <c r="M24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B25" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="D25" s="1"/>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>2</v>
-      </c>
-      <c r="H25">
-        <v>3</v>
-      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
       <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>3</v>
+      </c>
+      <c r="M25">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>382</v>
+      </c>
+      <c r="B26" t="s">
+        <v>254</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>10</v>
+      </c>
+      <c r="J26">
+        <v>12</v>
+      </c>
+      <c r="K26">
+        <v>14</v>
+      </c>
+      <c r="L26">
+        <v>17</v>
+      </c>
+      <c r="M26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>383</v>
+      </c>
+      <c r="B27" t="s">
+        <v>255</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27">
+        <v>10</v>
+      </c>
+      <c r="J27">
+        <v>8</v>
+      </c>
+      <c r="K27">
+        <v>6</v>
+      </c>
+      <c r="L27">
+        <v>4</v>
+      </c>
+      <c r="M27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>384</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B28" t="s">
+        <v>257</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28">
+        <v>2</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>3</v>
+      </c>
+      <c r="M28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>385</v>
+      </c>
+      <c r="B29" t="s">
         <v>256</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="D26" s="1">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>10</v>
-      </c>
-      <c r="F26">
-        <v>12</v>
-      </c>
-      <c r="G26">
-        <v>14</v>
-      </c>
-      <c r="H26">
-        <v>17</v>
-      </c>
-      <c r="I26">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>385</v>
-      </c>
-      <c r="B27" t="s">
-        <v>257</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="D27" s="1"/>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="I27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="C29" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29">
+        <v>3</v>
+      </c>
+      <c r="J29">
+        <v>3</v>
+      </c>
+      <c r="K29">
+        <v>4</v>
+      </c>
+      <c r="L29">
+        <v>4</v>
+      </c>
+      <c r="M29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>386</v>
       </c>
-      <c r="B28" t="s">
-        <v>259</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="D28" s="1"/>
-      <c r="E28">
-        <v>2</v>
-      </c>
-      <c r="F28">
-        <v>2</v>
-      </c>
-      <c r="G28">
-        <v>2</v>
-      </c>
-      <c r="H28">
-        <v>3</v>
-      </c>
-      <c r="I28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>387</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>258</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="D29" s="1"/>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>3</v>
-      </c>
-      <c r="G29">
-        <v>4</v>
-      </c>
-      <c r="H29">
-        <v>4</v>
-      </c>
-      <c r="I29">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>388</v>
-      </c>
-      <c r="B30" t="s">
-        <v>260</v>
-      </c>
       <c r="C30" s="1" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="D30" s="1"/>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
       <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
         <v>2</v>
       </c>
     </row>
@@ -9571,10 +9712,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256234DA-DFCC-4C64-B075-94895DF2EFDB}">
-  <dimension ref="A2:B69"/>
+  <dimension ref="A2:B74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -9592,7 +9733,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -9600,7 +9741,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -9608,7 +9749,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -9616,7 +9757,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -9624,7 +9765,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -9632,7 +9773,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -9640,7 +9781,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -9648,7 +9789,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -9656,7 +9797,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -9664,7 +9805,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -9672,7 +9813,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -9680,7 +9821,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -9688,7 +9829,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -9696,7 +9837,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -9704,7 +9845,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -9712,7 +9853,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -9720,7 +9861,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -9728,7 +9869,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -9736,7 +9877,7 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -9744,7 +9885,7 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -9752,7 +9893,7 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -9760,7 +9901,7 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -9768,7 +9909,7 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -9776,7 +9917,7 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -9784,7 +9925,7 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -9792,7 +9933,7 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -9800,7 +9941,7 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -9808,7 +9949,7 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -9816,7 +9957,7 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -9824,7 +9965,7 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -9832,7 +9973,7 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -9840,7 +9981,7 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -9848,7 +9989,7 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -9856,7 +9997,7 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -9864,7 +10005,7 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -9872,7 +10013,7 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -9880,7 +10021,7 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -9888,7 +10029,7 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -9896,7 +10037,7 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -9904,7 +10045,7 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -9912,7 +10053,7 @@
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -9920,7 +10061,7 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -9928,7 +10069,7 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -9936,7 +10077,7 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -9944,7 +10085,7 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -9952,7 +10093,7 @@
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -9960,7 +10101,7 @@
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -9968,7 +10109,7 @@
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -9976,7 +10117,7 @@
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -9984,7 +10125,7 @@
         <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -9992,7 +10133,7 @@
         <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -10000,7 +10141,7 @@
         <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -10008,7 +10149,7 @@
         <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -10016,7 +10157,7 @@
         <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -10024,7 +10165,7 @@
         <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -10032,7 +10173,7 @@
         <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -10040,7 +10181,7 @@
         <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -10048,7 +10189,7 @@
         <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -10056,7 +10197,7 @@
         <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -10064,7 +10205,7 @@
         <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -10072,7 +10213,7 @@
         <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -10080,7 +10221,7 @@
         <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -10088,7 +10229,7 @@
         <v>63</v>
       </c>
       <c r="B66" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -10096,7 +10237,7 @@
         <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -10104,7 +10245,7 @@
         <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -10112,7 +10253,47 @@
         <v>66</v>
       </c>
       <c r="B69" t="s">
-        <v>591</v>
+        <v>584</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>67</v>
+      </c>
+      <c r="B70" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>68</v>
+      </c>
+      <c r="B71" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>69</v>
+      </c>
+      <c r="B72" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>70</v>
+      </c>
+      <c r="B73" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>71</v>
+      </c>
+      <c r="B74" t="s">
+        <v>750</v>
       </c>
     </row>
   </sheetData>
@@ -10125,8 +10306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56531302-81BA-451E-B9F8-11674876B135}">
   <dimension ref="A2:F27"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
+    <sheetView topLeftCell="A19" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -10142,7 +10323,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="E2" t="s">
         <v>71</v>
@@ -10162,7 +10343,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -10179,7 +10360,7 @@
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -10196,7 +10377,7 @@
         <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -10213,7 +10394,7 @@
         <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -10233,7 +10414,7 @@
         <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -10241,7 +10422,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B9">
         <v>6</v>
@@ -10250,10 +10431,10 @@
         <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -10267,7 +10448,7 @@
         <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -10284,7 +10465,7 @@
         <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -10301,10 +10482,10 @@
         <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="E12">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -10318,10 +10499,10 @@
         <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -10335,15 +10516,15 @@
         <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B15">
         <v>12</v>
@@ -10352,10 +10533,10 @@
         <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -10369,7 +10550,7 @@
         <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -10386,7 +10567,7 @@
         <v>51</v>
       </c>
       <c r="D17" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -10403,7 +10584,7 @@
         <v>53</v>
       </c>
       <c r="D18" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="E18">
         <v>5</v>
@@ -10420,7 +10601,7 @@
         <v>55</v>
       </c>
       <c r="D19" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="E19">
         <v>15</v>
@@ -10437,7 +10618,7 @@
         <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -10457,7 +10638,7 @@
         <v>58</v>
       </c>
       <c r="D21" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -10474,7 +10655,7 @@
         <v>60</v>
       </c>
       <c r="D22" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -10491,7 +10672,7 @@
         <v>62</v>
       </c>
       <c r="D23" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -10508,7 +10689,7 @@
         <v>64</v>
       </c>
       <c r="D24" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -10525,7 +10706,7 @@
         <v>66</v>
       </c>
       <c r="D25" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -10542,7 +10723,7 @@
         <v>68</v>
       </c>
       <c r="D26" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -10559,7 +10740,7 @@
         <v>70</v>
       </c>
       <c r="D27" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="E27">
         <v>2</v>
@@ -10591,33 +10772,33 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="F2" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C4" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D4" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E4" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -10628,19 +10809,19 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C5" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D5" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E5" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10651,19 +10832,19 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C6" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D6" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E6" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10674,19 +10855,19 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C7" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E7" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10700,19 +10881,19 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C8" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D8" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E8" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10723,19 +10904,19 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C9" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D9" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E9" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -10746,19 +10927,19 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C10" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D10" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E10" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -10769,19 +10950,19 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C11" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D11" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E11" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -10792,19 +10973,19 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C12" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D12" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E12" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -10815,19 +10996,19 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B13" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C13" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D13" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E13" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -10838,19 +11019,19 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B14" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C14" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="D14" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="E14" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -10861,19 +11042,19 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C15" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="D15" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="E15" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -10884,19 +11065,19 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B16" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C16" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="D16" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="E16" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -10907,19 +11088,19 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C17" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="D17" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="E17" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -10930,19 +11111,19 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B18" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C18" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="D18" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="E18" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -10953,19 +11134,19 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C19" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="D19" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="E19" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -10979,19 +11160,19 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="B20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C20" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="D20" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="E20" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -11005,19 +11186,19 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B21" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C21" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="D21" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="E21" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -11028,19 +11209,19 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C22" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="D22" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="E22" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -11051,19 +11232,19 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B23" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C23" t="s">
+        <v>439</v>
+      </c>
+      <c r="D23" t="s">
         <v>445</v>
       </c>
-      <c r="D23" t="s">
-        <v>451</v>
-      </c>
       <c r="E23" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -11074,19 +11255,19 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C24" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="D24" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="E24" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -11097,19 +11278,19 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B25" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C25" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="D25" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="E25" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="F25">
         <v>2</v>
@@ -11123,19 +11304,19 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B26" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C26" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="D26" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="E26" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="F26">
         <v>2</v>
@@ -11149,19 +11330,19 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B27" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C27" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="D27" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="E27" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="F27">
         <v>2</v>
@@ -11175,19 +11356,19 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B28" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C28" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="D28" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="E28" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="F28">
         <v>2</v>
@@ -11198,19 +11379,19 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B29" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C29" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="D29" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="E29" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="F29">
         <v>2</v>
@@ -11221,19 +11402,19 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B30" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C30" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="D30" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="E30" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="F30">
         <v>2</v>
@@ -11244,19 +11425,19 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B31" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C31" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="D31" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="E31" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="F31">
         <v>2</v>
@@ -11267,19 +11448,19 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B32" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C32" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="D32" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="E32" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="F32">
         <v>2</v>
@@ -11290,19 +11471,19 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B33" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C33" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="D33" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="E33" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="F33">
         <v>2</v>
@@ -11313,19 +11494,19 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C34" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="D34" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="E34" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="F34">
         <v>2</v>
@@ -11336,19 +11517,19 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B35" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C35" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D35" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="E35" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="F35">
         <v>3</v>
@@ -11362,19 +11543,19 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B36" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C36" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D36" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="E36" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="F36">
         <v>3</v>
@@ -11388,19 +11569,19 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B37" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C37" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D37" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="E37" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="F37">
         <v>3</v>
@@ -11414,19 +11595,19 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B38" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C38" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D38" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="E38" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="F38">
         <v>3</v>
@@ -11440,19 +11621,19 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B39" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C39" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D39" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="E39" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="F39">
         <v>3</v>
@@ -11466,19 +11647,19 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B40" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C40" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D40" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="E40" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="F40">
         <v>3</v>
@@ -11492,19 +11673,19 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B41" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C41" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D41" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="E41" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="F41">
         <v>3</v>
@@ -11518,19 +11699,19 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B42" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C42" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D42" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="E42" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="F42">
         <v>3</v>
@@ -11544,19 +11725,19 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B43" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C43" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D43" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="E43" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="F43">
         <v>3</v>
@@ -11570,19 +11751,19 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B44" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C44" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D44" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="E44" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="F44">
         <v>3</v>
@@ -11596,19 +11777,19 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B45" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C45" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D45" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="E45" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="F45">
         <v>3</v>
@@ -11622,19 +11803,19 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B46" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C46" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D46" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="E46" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="F46">
         <v>3</v>
@@ -11648,19 +11829,19 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B47" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C47" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D47" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="E47" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="F47">
         <v>3</v>
@@ -11682,8 +11863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD5E1049-6494-417E-A790-6BE56169812D}">
   <dimension ref="A2:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -11703,7 +11884,7 @@
     </row>
     <row r="4" spans="1:7" ht="56" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
         <v>76</v>
@@ -11712,13 +11893,13 @@
         <v>77</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E4" t="s">
         <v>74</v>
       </c>
       <c r="F4" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="G4" t="s">
         <v>75</v>
@@ -11726,22 +11907,22 @@
     </row>
     <row r="5" spans="1:7" ht="42" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" t="s">
         <v>80</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="D5" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="E5" t="s">
-        <v>78</v>
+        <v>732</v>
       </c>
       <c r="F5" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="G5" t="s">
         <v>75</v>
@@ -11749,22 +11930,22 @@
     </row>
     <row r="6" spans="1:7" ht="70" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E6" t="s">
-        <v>94</v>
-      </c>
       <c r="F6" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="G6" t="s">
         <v>75</v>
@@ -11772,22 +11953,22 @@
     </row>
     <row r="7" spans="1:7" ht="56" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" t="s">
         <v>105</v>
       </c>
-      <c r="D7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" t="s">
-        <v>106</v>
-      </c>
       <c r="F7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="G7" t="s">
         <v>75</v>
@@ -11795,22 +11976,22 @@
     </row>
     <row r="8" spans="1:7" ht="56" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" t="s">
         <v>108</v>
       </c>
-      <c r="D8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E8" t="s">
-        <v>109</v>
-      </c>
       <c r="F8" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="G8" t="s">
         <v>75</v>
@@ -11818,22 +11999,22 @@
     </row>
     <row r="9" spans="1:7" ht="56" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" t="s">
+        <v>573</v>
+      </c>
+      <c r="E9" t="s">
         <v>111</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D9" t="s">
-        <v>579</v>
-      </c>
-      <c r="E9" t="s">
-        <v>112</v>
-      </c>
       <c r="F9" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="G9" t="s">
         <v>75</v>
@@ -11841,22 +12022,22 @@
     </row>
     <row r="10" spans="1:7" ht="56" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="D10" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="E10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F10" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="G10" t="s">
         <v>75</v>
@@ -11864,22 +12045,22 @@
     </row>
     <row r="11" spans="1:7" ht="56" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F11" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="G11" t="s">
         <v>75</v>
@@ -11887,22 +12068,22 @@
     </row>
     <row r="12" spans="1:7" ht="56" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="D12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F12" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="G12" t="s">
         <v>75</v>
@@ -11910,22 +12091,22 @@
     </row>
     <row r="13" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" t="s">
         <v>123</v>
       </c>
-      <c r="D13" t="s">
-        <v>90</v>
-      </c>
-      <c r="E13" t="s">
-        <v>124</v>
-      </c>
       <c r="F13" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="G13" t="s">
         <v>75</v>
@@ -11933,22 +12114,22 @@
     </row>
     <row r="14" spans="1:7" ht="42" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" t="s">
         <v>126</v>
       </c>
-      <c r="D14" t="s">
-        <v>91</v>
-      </c>
-      <c r="E14" t="s">
-        <v>127</v>
-      </c>
       <c r="F14" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="G14" t="s">
         <v>75</v>
@@ -11956,22 +12137,22 @@
     </row>
     <row r="15" spans="1:7" ht="42" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" t="s">
         <v>129</v>
       </c>
-      <c r="D15" t="s">
-        <v>95</v>
-      </c>
-      <c r="E15" t="s">
-        <v>130</v>
-      </c>
       <c r="F15" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="G15" t="s">
         <v>75</v>
@@ -11979,22 +12160,22 @@
     </row>
     <row r="16" spans="1:7" ht="56" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="D16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F16" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="G16" t="s">
         <v>75</v>
@@ -12002,22 +12183,22 @@
     </row>
     <row r="17" spans="1:7" ht="42" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D17" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="E17" t="s">
-        <v>134</v>
+        <v>733</v>
       </c>
       <c r="F17" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="G17" t="s">
         <v>75</v>
@@ -12025,22 +12206,22 @@
     </row>
     <row r="18" spans="1:7" ht="56" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F18" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="G18" t="s">
         <v>75</v>
@@ -12048,22 +12229,22 @@
     </row>
     <row r="19" spans="1:7" ht="56" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B19" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E19" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="F19" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="G19" t="s">
         <v>75</v>
@@ -12071,22 +12252,22 @@
     </row>
     <row r="20" spans="1:7" ht="56" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B20" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F20" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="G20" t="s">
         <v>75</v>
@@ -12094,22 +12275,22 @@
     </row>
     <row r="21" spans="1:7" ht="42" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B21" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E21" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F21" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="G21" t="s">
         <v>75</v>
@@ -12117,22 +12298,22 @@
     </row>
     <row r="22" spans="1:7" ht="56" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B22" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E22" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F22" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="G22" t="s">
         <v>75</v>
@@ -12140,22 +12321,22 @@
     </row>
     <row r="23" spans="1:7" ht="42" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B23" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E23" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F23" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="G23" t="s">
         <v>75</v>
@@ -12186,15 +12367,15 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -12202,10 +12383,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B4" t="s">
-        <v>735</v>
+        <v>722</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -12213,10 +12394,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B5" t="s">
-        <v>736</v>
+        <v>723</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -12224,10 +12405,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="B6" t="s">
-        <v>737</v>
+        <v>724</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -12235,10 +12416,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="B7" t="s">
-        <v>738</v>
+        <v>725</v>
       </c>
       <c r="C7">
         <v>1</v>

--- a/Excel/excel/data.xlsx
+++ b/Excel/excel/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\ProjectZoo\Excel\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E20C336-640D-432C-A52A-919CDD1F2E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6539140-3F3E-41AF-BCBE-6F21D33AB0B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19103" yWindow="7298" windowWidth="19395" windowHeight="11474" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="card" sheetId="1" r:id="rId1"/>
@@ -2056,10 +2056,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>花费$2金钱，升级部门$1次。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>每季度开始时随机获得一些东西</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3038,6 +3034,10 @@
   </si>
   <si>
     <t>不能获得任何收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费15金钱，升级部门1次。(每季度限$1次)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3383,8 +3383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:Q139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35:O35"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3412,7 +3412,7 @@
         <v>72</v>
       </c>
       <c r="I2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="J2" t="s">
         <v>497</v>
@@ -3465,7 +3465,7 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G4" s="1">
         <v>2</v>
@@ -3504,7 +3504,7 @@
         <v>162</v>
       </c>
       <c r="B5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C5" t="s">
         <v>438</v>
@@ -3514,10 +3514,10 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -3535,7 +3535,7 @@
         <v>5</v>
       </c>
       <c r="O5">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -3559,7 +3559,7 @@
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G6" s="1">
         <v>3</v>
@@ -3604,7 +3604,7 @@
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -3647,7 +3647,7 @@
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="G8" s="1">
         <v>50</v>
@@ -3692,7 +3692,7 @@
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G9" s="1">
         <v>4</v>
@@ -3737,7 +3737,7 @@
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G10" s="1">
         <v>8</v>
@@ -3782,7 +3782,7 @@
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G11" s="1">
         <v>9</v>
@@ -3827,7 +3827,7 @@
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G12" s="1">
         <v>3</v>
@@ -3874,7 +3874,7 @@
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G13" s="1">
         <v>25</v>
@@ -3917,7 +3917,7 @@
         <v>400</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G14" s="1">
         <v>20</v>
@@ -3955,7 +3955,7 @@
         <v>401</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G15" s="1">
         <v>1</v>
@@ -3990,10 +3990,10 @@
         <v>172</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G16" s="1">
         <v>2</v>
@@ -4022,7 +4022,7 @@
     </row>
     <row r="17" spans="1:17" ht="28" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B17" t="s">
         <v>173</v>
@@ -4031,7 +4031,7 @@
         <v>422</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="G17" s="1">
         <v>20</v>
@@ -4067,7 +4067,7 @@
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -4101,7 +4101,7 @@
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -4135,7 +4135,7 @@
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -4203,7 +4203,7 @@
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -4237,7 +4237,7 @@
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G23" s="1">
         <v>1</v>
@@ -4275,7 +4275,7 @@
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G24" s="1">
         <v>10</v>
@@ -4313,7 +4313,7 @@
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G25" s="1">
         <v>20</v>
@@ -4349,7 +4349,7 @@
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G26" s="1">
         <v>2</v>
@@ -4387,7 +4387,7 @@
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -4423,7 +4423,7 @@
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="G28" s="1">
         <v>3</v>
@@ -4459,7 +4459,7 @@
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G29" s="1">
         <v>1</v>
@@ -4495,7 +4495,7 @@
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G30" s="1">
         <v>1</v>
@@ -4531,7 +4531,7 @@
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G31" s="1">
         <v>15</v>
@@ -4567,7 +4567,7 @@
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G32" s="1">
         <v>2</v>
@@ -4603,7 +4603,7 @@
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="G33" s="1">
         <v>90</v>
@@ -4681,7 +4681,7 @@
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G35" s="1">
         <v>6</v>
@@ -4716,7 +4716,7 @@
         <v>303</v>
       </c>
       <c r="B36" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C36" t="s">
         <v>439</v>
@@ -4726,7 +4726,7 @@
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G36" s="1">
         <v>10</v>
@@ -4771,7 +4771,7 @@
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G37" s="1">
         <v>15</v>
@@ -4816,7 +4816,7 @@
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G38" s="1">
         <v>3</v>
@@ -4861,7 +4861,7 @@
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="G39" s="1">
         <v>1</v>
@@ -4898,7 +4898,7 @@
         <v>307</v>
       </c>
       <c r="B40" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C40" t="s">
         <v>439</v>
@@ -4994,7 +4994,7 @@
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="G42" s="1">
         <v>3</v>
@@ -5039,7 +5039,7 @@
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="G43" s="1">
         <v>1</v>
@@ -5084,7 +5084,7 @@
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G44" s="1">
         <v>1</v>
@@ -5131,7 +5131,7 @@
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G45" s="1">
         <v>2</v>
@@ -5208,7 +5208,7 @@
         <v>412</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G47" s="1">
         <v>3</v>
@@ -5246,7 +5246,7 @@
         <v>413</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="G48" s="1">
         <v>5</v>
@@ -5284,7 +5284,7 @@
         <v>414</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G49" s="1">
         <v>10</v>
@@ -5320,7 +5320,7 @@
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -5354,7 +5354,7 @@
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -5388,7 +5388,7 @@
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
@@ -5422,7 +5422,7 @@
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
@@ -5456,7 +5456,7 @@
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G54" s="1">
         <v>1</v>
@@ -5494,7 +5494,7 @@
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G55" s="1">
         <v>1</v>
@@ -5530,7 +5530,7 @@
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G56" s="1">
         <v>3</v>
@@ -5638,7 +5638,7 @@
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="G59" s="1">
         <v>10</v>
@@ -5674,7 +5674,7 @@
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G60" s="1">
         <v>1</v>
@@ -5710,7 +5710,7 @@
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G61" s="1">
         <v>1</v>
@@ -5746,7 +5746,7 @@
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G62" s="1">
         <v>1</v>
@@ -5782,14 +5782,16 @@
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="G63" s="1">
         <v>3</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
+      <c r="J63" s="1">
+        <v>1</v>
+      </c>
       <c r="L63">
         <v>0</v>
       </c>
@@ -5818,7 +5820,7 @@
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G64" s="1">
         <v>50</v>
@@ -5854,7 +5856,7 @@
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G65" s="1">
         <v>1</v>
@@ -5890,7 +5892,7 @@
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="G66" s="1">
         <v>1</v>
@@ -5926,7 +5928,7 @@
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
@@ -6011,7 +6013,7 @@
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G69" s="1">
         <v>2</v>
@@ -6058,7 +6060,7 @@
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G70" s="1">
         <v>5</v>
@@ -6103,7 +6105,7 @@
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="G71" s="1">
         <v>3</v>
@@ -6148,7 +6150,7 @@
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="G72" s="1">
         <v>15</v>
@@ -6195,7 +6197,7 @@
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="G73" s="1">
         <v>10</v>
@@ -6242,7 +6244,7 @@
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="G74" s="1">
         <v>1</v>
@@ -6287,7 +6289,7 @@
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G75" s="1">
         <v>15</v>
@@ -6332,7 +6334,7 @@
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G76" s="1">
         <v>4</v>
@@ -6377,7 +6379,7 @@
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G77" s="1">
         <v>6</v>
@@ -6418,7 +6420,7 @@
         <v>420</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G78" s="1">
         <v>25</v>
@@ -6456,7 +6458,7 @@
         <v>423</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="G79" s="1">
         <v>30</v>
@@ -6494,7 +6496,7 @@
         <v>424</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G80" s="1">
         <v>20</v>
@@ -6532,7 +6534,7 @@
         <v>425</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G81" s="1">
         <v>5</v>
@@ -6568,7 +6570,7 @@
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
@@ -6602,7 +6604,7 @@
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
@@ -6636,7 +6638,7 @@
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
@@ -6670,7 +6672,7 @@
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
@@ -6704,7 +6706,7 @@
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
@@ -6738,7 +6740,7 @@
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="G87" s="1">
         <v>1</v>
@@ -6776,7 +6778,7 @@
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="G88" s="1">
         <v>15</v>
@@ -6814,7 +6816,7 @@
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G89" s="1">
         <v>1</v>
@@ -6850,7 +6852,7 @@
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="G90" s="1">
         <v>1</v>
@@ -6888,7 +6890,7 @@
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G91" s="1">
         <v>10</v>
@@ -6928,7 +6930,7 @@
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="G92" s="1">
         <v>4</v>
@@ -6966,7 +6968,7 @@
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G93" s="1">
         <v>1</v>
@@ -7004,7 +7006,7 @@
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="G94" s="1">
         <v>15</v>
@@ -7040,7 +7042,7 @@
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G95" s="1">
         <v>50</v>
@@ -7076,7 +7078,7 @@
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="G96" s="1">
         <v>5</v>
@@ -7114,7 +7116,7 @@
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="G97" s="1">
         <v>1</v>
@@ -7152,7 +7154,7 @@
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="G98" s="1">
         <v>4</v>
@@ -7190,7 +7192,7 @@
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
@@ -7232,7 +7234,7 @@
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
@@ -7275,7 +7277,7 @@
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
@@ -7318,7 +7320,7 @@
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G102" s="1">
         <v>3</v>
@@ -7363,7 +7365,7 @@
       </c>
       <c r="E103" s="1"/>
       <c r="F103" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G103" s="1">
         <v>3</v>
@@ -7408,7 +7410,7 @@
       </c>
       <c r="E104" s="1"/>
       <c r="F104" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G104" s="1">
         <v>3</v>
@@ -7453,7 +7455,7 @@
       </c>
       <c r="E105" s="1"/>
       <c r="F105" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G105" s="1">
         <v>10</v>
@@ -7498,7 +7500,7 @@
       </c>
       <c r="E106" s="1"/>
       <c r="F106" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
@@ -7541,7 +7543,7 @@
       </c>
       <c r="E107" s="1"/>
       <c r="F107" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
@@ -7584,7 +7586,7 @@
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
@@ -7627,7 +7629,7 @@
       </c>
       <c r="E109" s="1"/>
       <c r="F109" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G109" s="1">
         <v>3</v>
@@ -7672,7 +7674,7 @@
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G110" s="1">
         <v>6</v>
@@ -7717,7 +7719,7 @@
       </c>
       <c r="E111" s="1"/>
       <c r="F111" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G111" s="1">
         <v>10</v>
@@ -7762,7 +7764,7 @@
       </c>
       <c r="E112" s="1"/>
       <c r="F112" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G112" s="1">
         <v>10</v>
@@ -7786,7 +7788,7 @@
         <v>4</v>
       </c>
       <c r="P112">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -7803,7 +7805,7 @@
         <v>429</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G113" s="1">
         <v>50</v>
@@ -7841,7 +7843,7 @@
         <v>430</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G114" s="1">
         <v>5</v>
@@ -7879,7 +7881,7 @@
         <v>431</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="G115" s="1">
         <v>1</v>
@@ -7917,7 +7919,7 @@
         <v>432</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="G116" s="1">
         <v>1</v>
@@ -7955,7 +7957,7 @@
       </c>
       <c r="E117" s="1"/>
       <c r="F117" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
@@ -7989,7 +7991,7 @@
       </c>
       <c r="E118" s="1"/>
       <c r="F118" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
@@ -8023,7 +8025,7 @@
       </c>
       <c r="E119" s="1"/>
       <c r="F119" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
@@ -8057,7 +8059,7 @@
       </c>
       <c r="E120" s="1"/>
       <c r="F120" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
@@ -8091,7 +8093,7 @@
       </c>
       <c r="E121" s="1"/>
       <c r="F121" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
@@ -8125,7 +8127,7 @@
       </c>
       <c r="E122" s="1"/>
       <c r="F122" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="G122" s="1">
         <v>2</v>
@@ -8161,7 +8163,7 @@
       </c>
       <c r="E123" s="1"/>
       <c r="F123" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G123" s="1">
         <v>5</v>
@@ -8199,7 +8201,7 @@
       </c>
       <c r="E124" s="1"/>
       <c r="F124" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="G124" s="1">
         <v>1</v>
@@ -8235,7 +8237,7 @@
       </c>
       <c r="E125" s="1"/>
       <c r="F125" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G125" s="1">
         <v>1</v>
@@ -8273,7 +8275,7 @@
       </c>
       <c r="E126" s="1"/>
       <c r="F126" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="G126" s="1">
         <v>5</v>
@@ -8379,7 +8381,7 @@
       </c>
       <c r="E129" s="1"/>
       <c r="F129" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="G129" s="1">
         <v>1</v>
@@ -8415,7 +8417,7 @@
       </c>
       <c r="E130" s="1"/>
       <c r="F130" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="G130" s="1">
         <v>1</v>
@@ -8451,7 +8453,7 @@
       </c>
       <c r="E131" s="1"/>
       <c r="F131" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G131" s="1">
         <v>1</v>
@@ -8487,7 +8489,7 @@
       </c>
       <c r="E132" s="1"/>
       <c r="F132" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="G132" s="1">
         <v>1</v>
@@ -8523,7 +8525,7 @@
       </c>
       <c r="E133" s="1"/>
       <c r="F133" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="G133" s="1">
         <v>1</v>
@@ -8555,11 +8557,11 @@
         <v>493</v>
       </c>
       <c r="B134" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E134" s="1"/>
       <c r="F134" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="G134" s="1">
         <v>1</v>
@@ -8749,8 +8751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE6872E-FB28-44F1-8AFD-A68325822C3A}">
   <dimension ref="A2:R30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8767,19 +8769,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
+        <v>737</v>
+      </c>
+      <c r="E2" t="s">
         <v>738</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>739</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>740</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>741</v>
-      </c>
-      <c r="H2" t="s">
-        <v>742</v>
       </c>
       <c r="I2" t="s">
         <v>7</v>
@@ -8814,13 +8816,13 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="I4">
         <v>5</v>
@@ -8855,7 +8857,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
@@ -8881,7 +8883,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
@@ -8922,33 +8924,33 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M7">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
@@ -8974,48 +8976,48 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>503</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>2</v>
-      </c>
-      <c r="M9">
-        <v>3</v>
-      </c>
-      <c r="N9">
-        <v>10</v>
-      </c>
-      <c r="O9">
-        <v>9</v>
-      </c>
-      <c r="P9">
-        <v>17</v>
-      </c>
-      <c r="Q9">
-        <v>15</v>
-      </c>
-      <c r="R9">
-        <v>20</v>
+        <v>750</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2</v>
+      </c>
+      <c r="H9" s="1">
+        <v>3</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>2</v>
+      </c>
+      <c r="L9" s="1">
+        <v>2</v>
+      </c>
+      <c r="M9" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -9041,7 +9043,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -9129,7 +9131,7 @@
         <v>175</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -9207,7 +9209,7 @@
         <v>178</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -9222,6 +9224,21 @@
         <v>2</v>
       </c>
       <c r="H16" s="1">
+        <v>3</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1">
+        <v>2</v>
+      </c>
+      <c r="L16" s="1">
+        <v>2</v>
+      </c>
+      <c r="M16" s="1">
         <v>3</v>
       </c>
     </row>
@@ -9274,7 +9291,7 @@
         <v>206</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -9439,7 +9456,7 @@
         <v>227</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -9485,7 +9502,7 @@
         <v>228</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -9516,7 +9533,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -9588,7 +9605,7 @@
         <v>255</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -9619,7 +9636,7 @@
         <v>257</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -9650,7 +9667,7 @@
         <v>256</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -9681,7 +9698,7 @@
         <v>258</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -9733,7 +9750,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -9741,7 +9758,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -9749,7 +9766,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -9757,7 +9774,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -9765,7 +9782,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -9773,7 +9790,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -9781,7 +9798,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -9789,7 +9806,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -9797,7 +9814,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -9805,7 +9822,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -9813,7 +9830,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -9821,7 +9838,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -9829,7 +9846,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -9837,7 +9854,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -9845,7 +9862,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -9853,7 +9870,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -9861,7 +9878,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -9869,7 +9886,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -9877,7 +9894,7 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -9885,7 +9902,7 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -9893,7 +9910,7 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -9901,7 +9918,7 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -9909,7 +9926,7 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -9917,7 +9934,7 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -9925,7 +9942,7 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -9933,7 +9950,7 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -9941,7 +9958,7 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -9949,7 +9966,7 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -9957,7 +9974,7 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -9965,7 +9982,7 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -9973,7 +9990,7 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -9981,7 +9998,7 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -9989,7 +10006,7 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -9997,7 +10014,7 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -10005,7 +10022,7 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -10013,7 +10030,7 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -10021,7 +10038,7 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -10029,7 +10046,7 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -10037,7 +10054,7 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -10045,7 +10062,7 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -10053,7 +10070,7 @@
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -10061,7 +10078,7 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -10069,7 +10086,7 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -10077,7 +10094,7 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -10085,7 +10102,7 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -10093,7 +10110,7 @@
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -10101,7 +10118,7 @@
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -10109,7 +10126,7 @@
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -10117,7 +10134,7 @@
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -10125,7 +10142,7 @@
         <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -10133,7 +10150,7 @@
         <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -10141,7 +10158,7 @@
         <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -10149,7 +10166,7 @@
         <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -10157,7 +10174,7 @@
         <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -10165,7 +10182,7 @@
         <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -10173,7 +10190,7 @@
         <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -10181,7 +10198,7 @@
         <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -10189,7 +10206,7 @@
         <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -10197,7 +10214,7 @@
         <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -10205,7 +10222,7 @@
         <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -10213,7 +10230,7 @@
         <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -10221,7 +10238,7 @@
         <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -10229,7 +10246,7 @@
         <v>63</v>
       </c>
       <c r="B66" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -10237,7 +10254,7 @@
         <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -10245,7 +10262,7 @@
         <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -10253,7 +10270,7 @@
         <v>66</v>
       </c>
       <c r="B69" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -10261,7 +10278,7 @@
         <v>67</v>
       </c>
       <c r="B70" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -10269,7 +10286,7 @@
         <v>68</v>
       </c>
       <c r="B71" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -10277,7 +10294,7 @@
         <v>69</v>
       </c>
       <c r="B72" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -10285,7 +10302,7 @@
         <v>70</v>
       </c>
       <c r="B73" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -10293,7 +10310,7 @@
         <v>71</v>
       </c>
       <c r="B74" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
   </sheetData>
@@ -10343,7 +10360,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -10360,7 +10377,7 @@
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -10377,7 +10394,7 @@
         <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -10394,7 +10411,7 @@
         <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -10414,7 +10431,7 @@
         <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -10431,7 +10448,7 @@
         <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -10448,7 +10465,7 @@
         <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -10465,7 +10482,7 @@
         <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -10482,7 +10499,7 @@
         <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E12">
         <v>8</v>
@@ -10499,7 +10516,7 @@
         <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -10516,7 +10533,7 @@
         <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -10533,7 +10550,7 @@
         <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E15">
         <v>5</v>
@@ -10550,7 +10567,7 @@
         <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -10567,7 +10584,7 @@
         <v>51</v>
       </c>
       <c r="D17" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -10584,7 +10601,7 @@
         <v>53</v>
       </c>
       <c r="D18" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E18">
         <v>5</v>
@@ -10601,7 +10618,7 @@
         <v>55</v>
       </c>
       <c r="D19" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E19">
         <v>15</v>
@@ -10618,7 +10635,7 @@
         <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -10638,7 +10655,7 @@
         <v>58</v>
       </c>
       <c r="D21" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -10655,7 +10672,7 @@
         <v>60</v>
       </c>
       <c r="D22" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -10672,7 +10689,7 @@
         <v>62</v>
       </c>
       <c r="D23" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -10689,7 +10706,7 @@
         <v>64</v>
       </c>
       <c r="D24" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -10706,7 +10723,7 @@
         <v>66</v>
       </c>
       <c r="D25" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -10723,7 +10740,7 @@
         <v>68</v>
       </c>
       <c r="D26" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -10740,7 +10757,7 @@
         <v>70</v>
       </c>
       <c r="D27" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E27">
         <v>2</v>
@@ -11919,7 +11936,7 @@
         <v>476</v>
       </c>
       <c r="E5" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F5" t="s">
         <v>475</v>
@@ -12008,7 +12025,7 @@
         <v>109</v>
       </c>
       <c r="D9" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E9" t="s">
         <v>111</v>
@@ -12031,7 +12048,7 @@
         <v>114</v>
       </c>
       <c r="D10" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E10" t="s">
         <v>112</v>
@@ -12192,10 +12209,10 @@
         <v>139</v>
       </c>
       <c r="D17" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E17" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="F17" t="s">
         <v>475</v>
@@ -12367,7 +12384,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28" x14ac:dyDescent="0.3">
@@ -12375,7 +12392,7 @@
         <v>293</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -12386,7 +12403,7 @@
         <v>294</v>
       </c>
       <c r="B4" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -12397,7 +12414,7 @@
         <v>333</v>
       </c>
       <c r="B5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -12408,7 +12425,7 @@
         <v>495</v>
       </c>
       <c r="B6" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -12419,7 +12436,7 @@
         <v>493</v>
       </c>
       <c r="B7" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C7">
         <v>1</v>

--- a/Excel/excel/data.xlsx
+++ b/Excel/excel/data.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\ProjectZoo\Excel\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6539140-3F3E-41AF-BCBE-6F21D33AB0B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6E1955-5E35-41BB-B514-28CAF627E30F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19118" yWindow="7313" windowWidth="19365" windowHeight="11445" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="card" sheetId="1" r:id="rId1"/>
-    <sheet name="workPos" sheetId="5" r:id="rId2"/>
+    <sheet name="actionSpace" sheetId="5" r:id="rId2"/>
     <sheet name="buff" sheetId="7" r:id="rId3"/>
     <sheet name="book" sheetId="2" r:id="rId4"/>
-    <sheet name="venue" sheetId="3" r:id="rId5"/>
+    <sheet name="exhibit" sheetId="3" r:id="rId5"/>
     <sheet name="event" sheetId="4" r:id="rId6"/>
     <sheet name="specWorker" sheetId="6" r:id="rId7"/>
   </sheets>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="753">
   <si>
     <t>uid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,10 +96,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>goldCost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>landType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1306,10 +1302,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>achi_poprating</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>achi_buru</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3039,6 +3031,21 @@
   <si>
     <t>花费15金钱，升级部门1次。(每季度限$1次)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coinCost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>achi_popularity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>const_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>const_2</t>
   </si>
 </sst>
 </file>
@@ -3383,8 +3390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:Q139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3406,66 +3413,66 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" t="s">
         <v>71</v>
       </c>
-      <c r="H2" t="s">
-        <v>72</v>
-      </c>
       <c r="I2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="J2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="K2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" t="s">
+        <v>749</v>
+      </c>
+      <c r="P2" t="s">
         <v>4</v>
       </c>
-      <c r="L2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" t="s">
-        <v>1</v>
-      </c>
-      <c r="N2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>5</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="L3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="40.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" t="s">
         <v>152</v>
       </c>
-      <c r="B4" t="s">
-        <v>153</v>
-      </c>
       <c r="C4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D4" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="G4" s="1">
         <v>2</v>
@@ -3501,20 +3508,20 @@
     </row>
     <row r="5" spans="1:17" ht="28" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B5" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C5" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D5" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
@@ -3546,20 +3553,20 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C6" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="G6" s="1">
         <v>3</v>
@@ -3591,20 +3598,20 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -3634,20 +3641,20 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D8" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G8" s="1">
         <v>50</v>
@@ -3679,20 +3686,20 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C9" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D9" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G9" s="1">
         <v>4</v>
@@ -3724,20 +3731,20 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C10" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D10" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G10" s="1">
         <v>8</v>
@@ -3769,20 +3776,20 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C11" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D11" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="G11" s="1">
         <v>9</v>
@@ -3814,20 +3821,20 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C12" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D12" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="G12" s="1">
         <v>3</v>
@@ -3861,20 +3868,20 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B13" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C13" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D13" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G13" s="1">
         <v>25</v>
@@ -3908,16 +3915,16 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="G14" s="1">
         <v>20</v>
@@ -3946,16 +3953,16 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G15" s="1">
         <v>1</v>
@@ -3984,16 +3991,16 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="G16" s="1">
         <v>2</v>
@@ -4022,16 +4029,16 @@
     </row>
     <row r="17" spans="1:17" ht="28" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G17" s="1">
         <v>20</v>
@@ -4060,14 +4067,14 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -4094,14 +4101,14 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -4128,14 +4135,14 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -4162,14 +4169,14 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -4196,14 +4203,14 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -4230,14 +4237,14 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="G23" s="1">
         <v>1</v>
@@ -4268,14 +4275,14 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="G24" s="1">
         <v>10</v>
@@ -4306,14 +4313,14 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B25" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G25" s="1">
         <v>20</v>
@@ -4342,14 +4349,14 @@
     </row>
     <row r="26" spans="1:17" ht="28" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="G26" s="1">
         <v>2</v>
@@ -4380,14 +4387,14 @@
     </row>
     <row r="27" spans="1:17" ht="28" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -4416,17 +4423,17 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="G28" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -4452,14 +4459,14 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B29" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G29" s="1">
         <v>1</v>
@@ -4488,14 +4495,14 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="G30" s="1">
         <v>1</v>
@@ -4524,14 +4531,14 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G31" s="1">
         <v>15</v>
@@ -4560,14 +4567,14 @@
     </row>
     <row r="32" spans="1:17" ht="28" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B32" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="G32" s="1">
         <v>2</v>
@@ -4596,14 +4603,14 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="G33" s="1">
         <v>90</v>
@@ -4632,14 +4639,14 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G34" s="1">
         <v>1</v>
@@ -4668,20 +4675,20 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B35" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C35" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D35" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G35" s="1">
         <v>6</v>
@@ -4713,20 +4720,20 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B36" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C36" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D36" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G36" s="1">
         <v>10</v>
@@ -4758,20 +4765,20 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B37" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C37" t="s">
+        <v>437</v>
+      </c>
+      <c r="D37" t="s">
         <v>439</v>
-      </c>
-      <c r="D37" t="s">
-        <v>441</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G37" s="1">
         <v>15</v>
@@ -4803,20 +4810,20 @@
     </row>
     <row r="38" spans="1:17" ht="42" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B38" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C38" t="s">
+        <v>437</v>
+      </c>
+      <c r="D38" t="s">
         <v>439</v>
-      </c>
-      <c r="D38" t="s">
-        <v>441</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="G38" s="1">
         <v>3</v>
@@ -4848,20 +4855,20 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B39" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C39" t="s">
+        <v>437</v>
+      </c>
+      <c r="D39" t="s">
         <v>439</v>
-      </c>
-      <c r="D39" t="s">
-        <v>441</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="G39" s="1">
         <v>1</v>
@@ -4895,20 +4902,20 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B40" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C40" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D40" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -4938,20 +4945,20 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B41" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C41" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D41" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -4981,20 +4988,20 @@
     </row>
     <row r="42" spans="1:17" ht="28" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B42" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C42" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D42" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="G42" s="1">
         <v>3</v>
@@ -5026,20 +5033,20 @@
     </row>
     <row r="43" spans="1:17" ht="28" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B43" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C43" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D43" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="G43" s="1">
         <v>1</v>
@@ -5071,20 +5078,20 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B44" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C44" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D44" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="G44" s="1">
         <v>1</v>
@@ -5118,20 +5125,20 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B45" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C45" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D45" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="G45" s="1">
         <v>2</v>
@@ -5163,16 +5170,16 @@
     </row>
     <row r="46" spans="1:17" ht="28" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>312</v>
+        <v>750</v>
       </c>
       <c r="B46" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -5199,16 +5206,16 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B47" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="G47" s="1">
         <v>3</v>
@@ -5237,16 +5244,16 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B48" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="G48" s="1">
         <v>5</v>
@@ -5275,16 +5282,16 @@
     </row>
     <row r="49" spans="1:17" ht="28" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B49" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="G49" s="1">
         <v>10</v>
@@ -5313,14 +5320,14 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B50" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -5347,14 +5354,14 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B51" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -5381,14 +5388,14 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
@@ -5415,14 +5422,14 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B53" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
@@ -5449,14 +5456,14 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B54" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G54" s="1">
         <v>1</v>
@@ -5487,14 +5494,14 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B55" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="G55" s="1">
         <v>1</v>
@@ -5523,17 +5530,17 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B56" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="G56" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
@@ -5559,14 +5566,14 @@
     </row>
     <row r="57" spans="1:17" ht="42" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B57" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
@@ -5595,14 +5602,14 @@
     </row>
     <row r="58" spans="1:17" ht="28" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B58" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
@@ -5631,14 +5638,14 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B59" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="G59" s="1">
         <v>10</v>
@@ -5667,14 +5674,14 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B60" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="G60" s="1">
         <v>1</v>
@@ -5703,14 +5710,14 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B61" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="G61" s="1">
         <v>1</v>
@@ -5739,14 +5746,14 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B62" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G62" s="1">
         <v>1</v>
@@ -5775,14 +5782,14 @@
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B63" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="G63" s="1">
         <v>3</v>
@@ -5813,14 +5820,14 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B64" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G64" s="1">
         <v>50</v>
@@ -5849,14 +5856,14 @@
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B65" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="G65" s="1">
         <v>1</v>
@@ -5885,14 +5892,14 @@
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B66" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="G66" s="1">
         <v>1</v>
@@ -5921,14 +5928,14 @@
     </row>
     <row r="67" spans="1:17" ht="28" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B67" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
@@ -5957,20 +5964,20 @@
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B68" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C68" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D68" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
@@ -6000,20 +6007,20 @@
     </row>
     <row r="69" spans="1:17" ht="28" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B69" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C69" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D69" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="G69" s="1">
         <v>2</v>
@@ -6047,20 +6054,20 @@
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B70" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C70" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D70" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="G70" s="1">
         <v>5</v>
@@ -6092,20 +6099,20 @@
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B71" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C71" t="s">
+        <v>445</v>
+      </c>
+      <c r="D71" t="s">
         <v>447</v>
-      </c>
-      <c r="D71" t="s">
-        <v>449</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="G71" s="1">
         <v>3</v>
@@ -6137,20 +6144,20 @@
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B72" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C72" t="s">
+        <v>445</v>
+      </c>
+      <c r="D72" t="s">
         <v>447</v>
-      </c>
-      <c r="D72" t="s">
-        <v>449</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="G72" s="1">
         <v>15</v>
@@ -6184,20 +6191,20 @@
     </row>
     <row r="73" spans="1:17" ht="28" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B73" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C73" t="s">
+        <v>445</v>
+      </c>
+      <c r="D73" t="s">
         <v>447</v>
-      </c>
-      <c r="D73" t="s">
-        <v>449</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G73" s="1">
         <v>10</v>
@@ -6231,20 +6238,20 @@
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B74" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C74" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D74" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="G74" s="1">
         <v>1</v>
@@ -6276,20 +6283,20 @@
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B75" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C75" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D75" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="G75" s="1">
         <v>15</v>
@@ -6321,20 +6328,20 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B76" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C76" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D76" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G76" s="1">
         <v>4</v>
@@ -6366,20 +6373,20 @@
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B77" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C77" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D77" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G77" s="1">
         <v>6</v>
@@ -6411,16 +6418,16 @@
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B78" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="G78" s="1">
         <v>25</v>
@@ -6449,16 +6456,16 @@
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B79" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G79" s="1">
         <v>30</v>
@@ -6487,16 +6494,16 @@
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B80" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="G80" s="1">
         <v>20</v>
@@ -6525,16 +6532,16 @@
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B81" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G81" s="1">
         <v>5</v>
@@ -6563,14 +6570,14 @@
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B82" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
@@ -6597,14 +6604,14 @@
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B83" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
@@ -6631,14 +6638,14 @@
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B84" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
@@ -6665,14 +6672,14 @@
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B85" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
@@ -6699,14 +6706,14 @@
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B86" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
@@ -6733,14 +6740,14 @@
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B87" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="G87" s="1">
         <v>1</v>
@@ -6771,14 +6778,14 @@
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B88" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="G88" s="1">
         <v>15</v>
@@ -6809,14 +6816,14 @@
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B89" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="G89" s="1">
         <v>1</v>
@@ -6845,14 +6852,14 @@
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B90" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="G90" s="1">
         <v>1</v>
@@ -6883,14 +6890,14 @@
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B91" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="G91" s="1">
         <v>10</v>
@@ -6923,14 +6930,14 @@
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B92" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="G92" s="1">
         <v>4</v>
@@ -6961,14 +6968,14 @@
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B93" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="G93" s="1">
         <v>1</v>
@@ -6999,14 +7006,14 @@
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B94" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="G94" s="1">
         <v>15</v>
@@ -7035,14 +7042,14 @@
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B95" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="G95" s="1">
         <v>50</v>
@@ -7071,14 +7078,14 @@
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B96" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="G96" s="1">
         <v>5</v>
@@ -7109,14 +7116,14 @@
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B97" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="G97" s="1">
         <v>1</v>
@@ -7147,14 +7154,14 @@
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B98" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="G98" s="1">
         <v>4</v>
@@ -7185,14 +7192,14 @@
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B99" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
@@ -7221,20 +7228,20 @@
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B100" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C100" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D100" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
@@ -7264,20 +7271,20 @@
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B101" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C101" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D101" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
@@ -7307,20 +7314,20 @@
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B102" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C102" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D102" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="G102" s="1">
         <v>3</v>
@@ -7352,20 +7359,20 @@
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B103" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C103" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D103" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E103" s="1"/>
       <c r="F103" s="1" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="G103" s="1">
         <v>3</v>
@@ -7397,20 +7404,20 @@
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B104" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C104" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D104" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E104" s="1"/>
       <c r="F104" s="1" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="G104" s="1">
         <v>3</v>
@@ -7442,20 +7449,20 @@
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B105" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C105" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D105" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E105" s="1"/>
       <c r="F105" s="1" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="G105" s="1">
         <v>10</v>
@@ -7487,20 +7494,20 @@
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B106" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C106" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D106" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E106" s="1"/>
       <c r="F106" s="1" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
@@ -7530,20 +7537,20 @@
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B107" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C107" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D107" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E107" s="1"/>
       <c r="F107" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
@@ -7573,20 +7580,20 @@
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B108" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C108" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D108" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
@@ -7616,20 +7623,20 @@
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B109" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C109" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D109" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E109" s="1"/>
       <c r="F109" s="1" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="G109" s="1">
         <v>3</v>
@@ -7661,20 +7668,20 @@
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B110" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C110" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D110" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="1" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="G110" s="1">
         <v>6</v>
@@ -7706,20 +7713,20 @@
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B111" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C111" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D111" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E111" s="1"/>
       <c r="F111" s="1" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="G111" s="1">
         <v>10</v>
@@ -7751,20 +7758,20 @@
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B112" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C112" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D112" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E112" s="1"/>
       <c r="F112" s="1" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G112" s="1">
         <v>10</v>
@@ -7796,16 +7803,16 @@
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B113" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="G113" s="1">
         <v>50</v>
@@ -7834,16 +7841,16 @@
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B114" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G114" s="1">
         <v>5</v>
@@ -7872,16 +7879,16 @@
     </row>
     <row r="115" spans="1:17" ht="28" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B115" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="G115" s="1">
         <v>1</v>
@@ -7910,16 +7917,16 @@
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B116" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="G116" s="1">
         <v>1</v>
@@ -7950,14 +7957,14 @@
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B117" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E117" s="1"/>
       <c r="F117" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
@@ -7984,14 +7991,14 @@
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B118" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E118" s="1"/>
       <c r="F118" s="1" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
@@ -8018,14 +8025,14 @@
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B119" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E119" s="1"/>
       <c r="F119" s="1" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
@@ -8052,14 +8059,14 @@
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B120" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E120" s="1"/>
       <c r="F120" s="1" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
@@ -8086,14 +8093,14 @@
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B121" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E121" s="1"/>
       <c r="F121" s="1" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
@@ -8120,14 +8127,14 @@
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B122" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E122" s="1"/>
       <c r="F122" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="G122" s="1">
         <v>2</v>
@@ -8156,14 +8163,14 @@
     </row>
     <row r="123" spans="1:17" ht="42" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B123" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E123" s="1"/>
       <c r="F123" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="G123" s="1">
         <v>5</v>
@@ -8194,14 +8201,14 @@
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B124" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E124" s="1"/>
       <c r="F124" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="G124" s="1">
         <v>1</v>
@@ -8230,14 +8237,14 @@
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B125" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E125" s="1"/>
       <c r="F125" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G125" s="1">
         <v>1</v>
@@ -8268,14 +8275,14 @@
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B126" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E126" s="1"/>
       <c r="F126" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="G126" s="1">
         <v>5</v>
@@ -8306,14 +8313,14 @@
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B127" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E127" s="1"/>
       <c r="F127" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
@@ -8340,14 +8347,14 @@
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B128" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E128" s="1"/>
       <c r="F128" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
@@ -8374,14 +8381,14 @@
     </row>
     <row r="129" spans="1:17" ht="28" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B129" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E129" s="1"/>
       <c r="F129" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="G129" s="1">
         <v>1</v>
@@ -8410,14 +8417,14 @@
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B130" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E130" s="1"/>
       <c r="F130" s="1" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="G130" s="1">
         <v>1</v>
@@ -8446,14 +8453,14 @@
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B131" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E131" s="1"/>
       <c r="F131" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="G131" s="1">
         <v>1</v>
@@ -8482,14 +8489,14 @@
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B132" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E132" s="1"/>
       <c r="F132" s="1" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="G132" s="1">
         <v>1</v>
@@ -8518,14 +8525,14 @@
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B133" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E133" s="1"/>
       <c r="F133" s="1" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G133" s="1">
         <v>1</v>
@@ -8554,14 +8561,14 @@
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B134" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E134" s="1"/>
       <c r="F134" s="1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="G134" s="1">
         <v>1</v>
@@ -8592,13 +8599,13 @@
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B135" t="s">
+        <v>478</v>
+      </c>
+      <c r="F135" s="1" t="s">
         <v>480</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>482</v>
       </c>
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
@@ -8622,13 +8629,13 @@
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B136" t="s">
+        <v>479</v>
+      </c>
+      <c r="F136" s="1" t="s">
         <v>481</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>483</v>
       </c>
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
@@ -8652,13 +8659,13 @@
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B137" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
@@ -8682,13 +8689,13 @@
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B138" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
@@ -8712,13 +8719,13 @@
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B139" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
@@ -8749,10 +8756,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE6872E-FB28-44F1-8AFD-A68325822C3A}">
-  <dimension ref="A2:R30"/>
+  <dimension ref="A2:T30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2:T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8764,65 +8771,71 @@
     <col min="5" max="8" width="8.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="D2" t="s">
+        <v>735</v>
+      </c>
+      <c r="E2" t="s">
+        <v>736</v>
+      </c>
+      <c r="F2" t="s">
         <v>737</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>738</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>739</v>
       </c>
-      <c r="G2" t="s">
-        <v>740</v>
-      </c>
-      <c r="H2" t="s">
-        <v>741</v>
-      </c>
       <c r="I2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>8</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>9</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>10</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>11</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>12</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>13</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>15</v>
       </c>
-      <c r="R2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S2" t="s">
+        <v>751</v>
+      </c>
+      <c r="T2" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="I4">
         <v>5</v>
@@ -8855,15 +8868,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="I5">
         <v>5</v>
@@ -8881,15 +8894,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I6">
         <v>5</v>
@@ -8922,15 +8935,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="I7">
         <v>13</v>
@@ -8948,15 +8961,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="I8">
         <v>100</v>
@@ -8974,56 +8987,62 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>748</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2</v>
+      </c>
+      <c r="H9" s="1">
+        <v>3</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>2</v>
+      </c>
+      <c r="L9" s="1">
+        <v>2</v>
+      </c>
+      <c r="M9" s="1">
+        <v>3</v>
+      </c>
+      <c r="S9">
+        <v>15</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>579</v>
+      </c>
+      <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>750</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>2</v>
-      </c>
-      <c r="G9" s="1">
-        <v>2</v>
-      </c>
-      <c r="H9" s="1">
-        <v>3</v>
-      </c>
-      <c r="I9" s="1">
-        <v>1</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1</v>
-      </c>
-      <c r="K9" s="1">
-        <v>2</v>
-      </c>
-      <c r="L9" s="1">
-        <v>2</v>
-      </c>
-      <c r="M9" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>581</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
       <c r="C10" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="I10">
         <v>50</v>
@@ -9041,15 +9060,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="I11">
         <v>5</v>
@@ -9082,15 +9101,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
@@ -9123,15 +9142,15 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -9154,15 +9173,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -9185,15 +9204,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -9201,15 +9220,15 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -9244,13 +9263,13 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
@@ -9285,13 +9304,13 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -9316,13 +9335,13 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -9347,13 +9366,13 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -9378,13 +9397,13 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
@@ -9419,13 +9438,13 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -9450,13 +9469,13 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -9496,13 +9515,13 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -9527,13 +9546,13 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -9558,13 +9577,13 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D26" s="1">
         <v>1</v>
@@ -9599,13 +9618,13 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B27" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -9630,13 +9649,13 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B28" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -9661,13 +9680,13 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B29" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -9692,13 +9711,13 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -9750,7 +9769,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -9758,7 +9777,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -9766,7 +9785,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -9774,7 +9793,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -9782,7 +9801,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -9790,7 +9809,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -9798,7 +9817,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -9806,7 +9825,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -9814,7 +9833,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -9822,7 +9841,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -9830,7 +9849,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -9838,7 +9857,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -9846,7 +9865,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -9854,7 +9873,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -9862,7 +9881,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -9870,7 +9889,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -9878,7 +9897,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -9886,7 +9905,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -9894,7 +9913,7 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -9902,7 +9921,7 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -9910,7 +9929,7 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -9918,7 +9937,7 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -9926,7 +9945,7 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -9934,7 +9953,7 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -9942,7 +9961,7 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -9950,7 +9969,7 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -9958,7 +9977,7 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -9966,7 +9985,7 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -9974,7 +9993,7 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -9982,7 +10001,7 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -9990,7 +10009,7 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -9998,7 +10017,7 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -10006,7 +10025,7 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -10014,7 +10033,7 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -10022,7 +10041,7 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -10030,7 +10049,7 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -10038,7 +10057,7 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -10046,7 +10065,7 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -10054,7 +10073,7 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -10062,7 +10081,7 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -10070,7 +10089,7 @@
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -10078,7 +10097,7 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -10086,7 +10105,7 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -10094,7 +10113,7 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -10102,7 +10121,7 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -10110,7 +10129,7 @@
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -10118,7 +10137,7 @@
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -10126,7 +10145,7 @@
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -10134,7 +10153,7 @@
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -10142,7 +10161,7 @@
         <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -10150,7 +10169,7 @@
         <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -10158,7 +10177,7 @@
         <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -10166,7 +10185,7 @@
         <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -10174,7 +10193,7 @@
         <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -10182,7 +10201,7 @@
         <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -10190,7 +10209,7 @@
         <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -10198,7 +10217,7 @@
         <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -10206,7 +10225,7 @@
         <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -10214,7 +10233,7 @@
         <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -10222,7 +10241,7 @@
         <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -10230,7 +10249,7 @@
         <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -10238,7 +10257,7 @@
         <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -10246,7 +10265,7 @@
         <v>63</v>
       </c>
       <c r="B66" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -10254,7 +10273,7 @@
         <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -10262,7 +10281,7 @@
         <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -10270,7 +10289,7 @@
         <v>66</v>
       </c>
       <c r="B69" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -10278,7 +10297,7 @@
         <v>67</v>
       </c>
       <c r="B70" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -10286,7 +10305,7 @@
         <v>68</v>
       </c>
       <c r="B71" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -10294,7 +10313,7 @@
         <v>69</v>
       </c>
       <c r="B72" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -10302,7 +10321,7 @@
         <v>70</v>
       </c>
       <c r="B73" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -10310,7 +10329,7 @@
         <v>71</v>
       </c>
       <c r="B74" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
   </sheetData>
@@ -10323,7 +10342,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56531302-81BA-451E-B9F8-11674876B135}">
   <dimension ref="A2:F27"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
@@ -10340,27 +10359,27 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" t="s">
         <v>71</v>
-      </c>
-      <c r="F2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>26</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
       <c r="D4" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -10368,16 +10387,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
         <v>28</v>
       </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
       <c r="D5" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -10385,16 +10404,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
         <v>30</v>
       </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
       <c r="D6" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -10402,16 +10421,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -10422,16 +10441,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -10439,16 +10458,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B9">
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -10456,16 +10475,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10">
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -10473,16 +10492,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11">
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -10490,16 +10509,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12">
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E12">
         <v>8</v>
@@ -10507,16 +10526,16 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13">
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -10524,16 +10543,16 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14">
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -10541,16 +10560,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B15">
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E15">
         <v>5</v>
@@ -10558,16 +10577,16 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16">
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -10575,16 +10594,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17">
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -10592,16 +10611,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B18">
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E18">
         <v>5</v>
@@ -10609,16 +10628,16 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19">
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E19">
         <v>15</v>
@@ -10626,16 +10645,16 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B20">
         <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -10646,16 +10665,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B21">
         <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D21" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -10663,16 +10682,16 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B22">
         <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D22" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -10680,16 +10699,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B23">
         <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D23" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -10697,16 +10716,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B24">
         <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D24" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -10714,16 +10733,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B25">
         <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D25" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -10731,16 +10750,16 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B26">
         <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D26" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -10748,16 +10767,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B27">
         <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D27" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E27">
         <v>2</v>
@@ -10789,33 +10808,33 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" t="s">
         <v>152</v>
       </c>
-      <c r="B4" t="s">
-        <v>153</v>
-      </c>
       <c r="C4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D4" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E4" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -10826,19 +10845,19 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C5" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D5" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E5" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10849,19 +10868,19 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C6" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E6" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -10872,19 +10891,19 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E7" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10898,19 +10917,19 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D8" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E8" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10921,19 +10940,19 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C9" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D9" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E9" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -10944,19 +10963,19 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C10" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D10" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -10967,19 +10986,19 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C11" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D11" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E11" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -10990,19 +11009,19 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C12" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D12" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E12" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -11013,19 +11032,19 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B13" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C13" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D13" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E13" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -11036,19 +11055,19 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C14" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D14" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E14" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -11059,19 +11078,19 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C15" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D15" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E15" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -11082,19 +11101,19 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C16" t="s">
+        <v>437</v>
+      </c>
+      <c r="D16" t="s">
         <v>439</v>
       </c>
-      <c r="D16" t="s">
-        <v>441</v>
-      </c>
       <c r="E16" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -11105,19 +11124,19 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C17" t="s">
+        <v>437</v>
+      </c>
+      <c r="D17" t="s">
         <v>439</v>
       </c>
-      <c r="D17" t="s">
-        <v>441</v>
-      </c>
       <c r="E17" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -11128,19 +11147,19 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C18" t="s">
+        <v>437</v>
+      </c>
+      <c r="D18" t="s">
         <v>439</v>
       </c>
-      <c r="D18" t="s">
-        <v>441</v>
-      </c>
       <c r="E18" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -11151,19 +11170,19 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C19" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D19" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E19" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -11177,19 +11196,19 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C20" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D20" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E20" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -11203,19 +11222,19 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C21" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D21" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E21" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -11226,19 +11245,19 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C22" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D22" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E22" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -11249,19 +11268,19 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C23" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D23" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E23" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -11272,19 +11291,19 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C24" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D24" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E24" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -11295,19 +11314,19 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B25" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C25" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D25" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E25" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F25">
         <v>2</v>
@@ -11321,19 +11340,19 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B26" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C26" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D26" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E26" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F26">
         <v>2</v>
@@ -11347,19 +11366,19 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B27" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C27" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D27" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E27" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F27">
         <v>2</v>
@@ -11373,19 +11392,19 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B28" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C28" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D28" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E28" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F28">
         <v>2</v>
@@ -11396,19 +11415,19 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B29" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C29" t="s">
+        <v>445</v>
+      </c>
+      <c r="D29" t="s">
         <v>447</v>
       </c>
-      <c r="D29" t="s">
-        <v>449</v>
-      </c>
       <c r="E29" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F29">
         <v>2</v>
@@ -11419,19 +11438,19 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B30" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C30" t="s">
+        <v>445</v>
+      </c>
+      <c r="D30" t="s">
         <v>447</v>
       </c>
-      <c r="D30" t="s">
-        <v>449</v>
-      </c>
       <c r="E30" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F30">
         <v>2</v>
@@ -11442,19 +11461,19 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B31" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C31" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D31" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E31" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F31">
         <v>2</v>
@@ -11465,19 +11484,19 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B32" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C32" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D32" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E32" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F32">
         <v>2</v>
@@ -11488,19 +11507,19 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B33" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C33" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D33" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E33" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F33">
         <v>2</v>
@@ -11511,19 +11530,19 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C34" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D34" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E34" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F34">
         <v>2</v>
@@ -11534,19 +11553,19 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B35" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C35" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D35" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E35" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F35">
         <v>3</v>
@@ -11560,19 +11579,19 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B36" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C36" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D36" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E36" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F36">
         <v>3</v>
@@ -11586,19 +11605,19 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B37" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C37" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D37" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E37" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F37">
         <v>3</v>
@@ -11612,19 +11631,19 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B38" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C38" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D38" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E38" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F38">
         <v>3</v>
@@ -11638,19 +11657,19 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B39" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C39" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D39" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E39" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F39">
         <v>3</v>
@@ -11664,19 +11683,19 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B40" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C40" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D40" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E40" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F40">
         <v>3</v>
@@ -11690,19 +11709,19 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B41" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C41" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D41" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E41" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F41">
         <v>3</v>
@@ -11716,19 +11735,19 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B42" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C42" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D42" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E42" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F42">
         <v>3</v>
@@ -11742,19 +11761,19 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B43" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C43" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D43" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E43" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F43">
         <v>3</v>
@@ -11768,19 +11787,19 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B44" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C44" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D44" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E44" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F44">
         <v>3</v>
@@ -11794,19 +11813,19 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B45" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C45" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D45" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E45" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F45">
         <v>3</v>
@@ -11820,19 +11839,19 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B46" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C46" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D46" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E46" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F46">
         <v>3</v>
@@ -11846,19 +11865,19 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B47" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C47" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D47" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E47" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F47">
         <v>3</v>
@@ -11901,462 +11920,462 @@
     </row>
     <row r="4" spans="1:7" ht="56" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" t="s">
         <v>77</v>
       </c>
-      <c r="D4" t="s">
-        <v>78</v>
-      </c>
       <c r="E4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" t="s">
+        <v>473</v>
+      </c>
+      <c r="G4" t="s">
         <v>74</v>
-      </c>
-      <c r="F4" t="s">
-        <v>475</v>
-      </c>
-      <c r="G4" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="42" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" t="s">
         <v>79</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="D5" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E5" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="F5" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="70" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" t="s">
         <v>92</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E6" t="s">
-        <v>93</v>
-      </c>
       <c r="F6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="56" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" t="s">
         <v>104</v>
       </c>
-      <c r="D7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E7" t="s">
-        <v>105</v>
-      </c>
       <c r="F7" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="56" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" t="s">
         <v>107</v>
       </c>
-      <c r="D8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E8" t="s">
-        <v>108</v>
-      </c>
       <c r="F8" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="56" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" t="s">
+        <v>570</v>
+      </c>
+      <c r="E9" t="s">
         <v>110</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D9" t="s">
-        <v>572</v>
-      </c>
-      <c r="E9" t="s">
-        <v>111</v>
-      </c>
       <c r="F9" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="56" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="D10" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F10" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="56" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F11" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="56" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="D12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F12" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" t="s">
         <v>122</v>
       </c>
-      <c r="D13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E13" t="s">
-        <v>123</v>
-      </c>
       <c r="F13" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="42" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" t="s">
         <v>125</v>
       </c>
-      <c r="D14" t="s">
-        <v>90</v>
-      </c>
-      <c r="E14" t="s">
-        <v>126</v>
-      </c>
       <c r="F14" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="42" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" t="s">
         <v>128</v>
       </c>
-      <c r="D15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15" t="s">
-        <v>129</v>
-      </c>
       <c r="F15" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="56" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="D16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F16" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="42" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="D17" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E17" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="F17" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="56" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="D18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F18" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="56" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="D19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E19" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F19" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="56" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="D20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F20" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="42" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B21" t="s">
+        <v>145</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="D21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F21" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="56" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="D22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F22" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="42" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B23" t="s">
+        <v>149</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="D23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F23" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -12370,7 +12389,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -12384,15 +12403,15 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -12400,10 +12419,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B4" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -12411,10 +12430,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B5" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -12422,10 +12441,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B6" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -12433,10 +12452,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B7" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C7">
         <v>1</v>
